--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_2_27.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_2_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1226526.547597431</v>
+        <v>1225814.282843686</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058546</v>
+        <v>632041.4518058543</v>
       </c>
     </row>
     <row r="9">
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>3.376898027766035</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="G8" t="n">
         <v>3.516869431124803</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>0.1776483877525582</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1233,52 +1233,52 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
         <v>3.516869431124803</v>
       </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
       <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>3.516869431124803</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>3.516869431124803</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
         <v>3.097658594934726</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>3.516869431124803</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>3.516869431124803</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1373,22 +1373,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>159.6303957926863</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>188.4860450762374</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>188.4860450762374</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>168.8802695799879</v>
       </c>
       <c r="I11" t="n">
-        <v>62.87039510700848</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,28 +1415,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>16.74367530294976</v>
       </c>
       <c r="S11" t="n">
-        <v>15.6705911807261</v>
+        <v>49.37664323013691</v>
       </c>
       <c r="T11" t="n">
-        <v>44.32438889692373</v>
+        <v>44.32438889692367</v>
       </c>
       <c r="U11" t="n">
-        <v>72.00878260204232</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>142.738019759611</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>159.7546999762259</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>149.6589469860265</v>
       </c>
     </row>
     <row r="12">
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>9.37638767482494</v>
+        <v>9.376387674824883</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1491,31 +1491,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>6.873689458423129</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>188.4860450762374</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="T12" t="n">
-        <v>188.4860450762374</v>
+        <v>36.82929343736544</v>
       </c>
       <c r="U12" t="n">
-        <v>59.08630782930764</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="V12" t="n">
-        <v>62.50715706586126</v>
+        <v>62.50715706586121</v>
       </c>
       <c r="W12" t="n">
-        <v>139.1210281349791</v>
+        <v>154.5043530684983</v>
       </c>
       <c r="X12" t="n">
-        <v>39.17115058992962</v>
+        <v>39.17115058992957</v>
       </c>
       <c r="Y12" t="n">
-        <v>45.24252228448464</v>
+        <v>45.24252228448458</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>25.28944752386647</v>
+        <v>25.28944752386642</v>
       </c>
       <c r="S13" t="n">
-        <v>57.29676508345549</v>
+        <v>57.29676508345544</v>
       </c>
       <c r="T13" t="n">
-        <v>45.61991340433105</v>
+        <v>45.61991340433099</v>
       </c>
       <c r="U13" t="n">
-        <v>110.5147946356657</v>
+        <v>110.5147946356656</v>
       </c>
       <c r="V13" t="n">
-        <v>66.96725133490892</v>
+        <v>66.96725133490887</v>
       </c>
       <c r="W13" t="n">
         <v>112.1689432397943</v>
       </c>
       <c r="X13" t="n">
-        <v>43.77769155870155</v>
+        <v>43.77769155870149</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.99950896462744</v>
+        <v>38.99950896462738</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>188.4860450762374</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1613,10 +1613,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>188.4860450762374</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>116.6418652730128</v>
+        <v>74.78806419068414</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>49.37664323013698</v>
+        <v>49.37664323013697</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>44.32438889692373</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>72.00878260204232</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>142.738019759611</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>159.7546999762259</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>188.4860450762374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>187.5181515243659</v>
+        <v>9.37638767482494</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1695,7 +1695,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>73.13070975219647</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1731,19 +1731,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>134.7218599774646</v>
       </c>
       <c r="S15" t="n">
-        <v>13.44964351050421</v>
+        <v>13.44964351050422</v>
       </c>
       <c r="T15" t="n">
         <v>36.82929343736549</v>
       </c>
       <c r="U15" t="n">
-        <v>59.08630782930764</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="V15" t="n">
-        <v>188.4860450762374</v>
+        <v>62.50715706586126</v>
       </c>
       <c r="W15" t="n">
         <v>88.56281972747061</v>
@@ -1752,7 +1752,7 @@
         <v>39.17115058992962</v>
       </c>
       <c r="Y15" t="n">
-        <v>45.24252228448464</v>
+        <v>158.3722866722037</v>
       </c>
     </row>
     <row r="16">
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>25.28944752386647</v>
+        <v>25.28944752386648</v>
       </c>
       <c r="S16" t="n">
-        <v>57.29676508345549</v>
+        <v>57.2967650834555</v>
       </c>
       <c r="T16" t="n">
         <v>45.61991340433105</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>76.63531193256529</v>
+        <v>76.63531193256517</v>
       </c>
       <c r="C17" t="n">
-        <v>52.75356893591078</v>
+        <v>52.75356893591066</v>
       </c>
       <c r="D17" t="n">
-        <v>40.32023119695924</v>
+        <v>40.32023119695913</v>
       </c>
       <c r="E17" t="n">
-        <v>74.02698361636811</v>
+        <v>74.026983616368</v>
       </c>
       <c r="F17" t="n">
-        <v>105.7473211947454</v>
+        <v>105.7473211947453</v>
       </c>
       <c r="G17" t="n">
-        <v>121.3863065040499</v>
+        <v>121.3863065040498</v>
       </c>
       <c r="H17" t="n">
-        <v>49.57010498426092</v>
+        <v>49.57010498426079</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>23.42785516388398</v>
+        <v>23.42785516388386</v>
       </c>
       <c r="W17" t="n">
-        <v>40.44453538049885</v>
+        <v>40.44453538049873</v>
       </c>
       <c r="X17" t="n">
-        <v>62.33078584943809</v>
+        <v>62.33078584943797</v>
       </c>
       <c r="Y17" t="n">
-        <v>84.83363897318185</v>
+        <v>84.83363897318173</v>
       </c>
     </row>
     <row r="18">
@@ -1923,13 +1923,13 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>182.6769817395875</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1965,28 +1965,28 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>6.873689458423129</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>134.7218599774646</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>24.42295906726211</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="W18" t="n">
-        <v>188.4860450762374</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="X18" t="n">
-        <v>188.4860450762374</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>76.63531193256523</v>
+        <v>76.63531193256517</v>
       </c>
       <c r="C20" t="n">
-        <v>52.75356893591072</v>
+        <v>52.75356893591066</v>
       </c>
       <c r="D20" t="n">
-        <v>40.32023119695918</v>
+        <v>40.32023119695913</v>
       </c>
       <c r="E20" t="n">
-        <v>74.02698361636806</v>
+        <v>74.026983616368</v>
       </c>
       <c r="F20" t="n">
-        <v>105.7473211947454</v>
+        <v>105.7473211947453</v>
       </c>
       <c r="G20" t="n">
-        <v>121.3863065040499</v>
+        <v>121.3863065040498</v>
       </c>
       <c r="H20" t="n">
-        <v>49.57010498426087</v>
+        <v>49.57010498426144</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>23.42785516388392</v>
+        <v>23.42785516388386</v>
       </c>
       <c r="W20" t="n">
-        <v>40.44453538049879</v>
+        <v>40.44453538049873</v>
       </c>
       <c r="X20" t="n">
-        <v>62.33078584943803</v>
+        <v>62.33078584943797</v>
       </c>
       <c r="Y20" t="n">
-        <v>84.83363897318179</v>
+        <v>84.83363897318173</v>
       </c>
     </row>
     <row r="21">
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>176.7504943976657</v>
+        <v>24.42295906726206</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2169,10 +2169,10 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>18.93062006179294</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2202,28 +2202,28 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>6.873689458423129</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>134.7218599774646</v>
       </c>
       <c r="S21" t="n">
         <v>188.4860450762373</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
         <v>188.4860450762373</v>
-      </c>
-      <c r="W21" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" t="n">
-        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>76.63531193256523</v>
+        <v>76.63531193256517</v>
       </c>
       <c r="C23" t="n">
-        <v>52.75356893591072</v>
+        <v>52.75356893591066</v>
       </c>
       <c r="D23" t="n">
-        <v>40.32023119695918</v>
+        <v>40.32023119695913</v>
       </c>
       <c r="E23" t="n">
-        <v>74.02698361636806</v>
+        <v>74.026983616368</v>
       </c>
       <c r="F23" t="n">
-        <v>105.7473211947454</v>
+        <v>105.7473211947453</v>
       </c>
       <c r="G23" t="n">
-        <v>121.3863065040499</v>
+        <v>121.3863065040498</v>
       </c>
       <c r="H23" t="n">
-        <v>49.57010498426087</v>
+        <v>49.57010498426081</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>23.42785516388392</v>
+        <v>23.42785516388386</v>
       </c>
       <c r="W23" t="n">
-        <v>40.44453538049879</v>
+        <v>40.44453538049873</v>
       </c>
       <c r="X23" t="n">
-        <v>62.33078584943803</v>
+        <v>62.33078584943797</v>
       </c>
       <c r="Y23" t="n">
-        <v>84.83363897318179</v>
+        <v>84.83363897318173</v>
       </c>
     </row>
     <row r="24">
@@ -2397,10 +2397,10 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
-        <v>58.32315154096149</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2409,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>148.7446376404189</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2439,19 +2439,19 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>6.873689458423129</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>134.7218599774646</v>
       </c>
       <c r="S24" t="n">
-        <v>188.4860450762374</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2460,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>36.15850974583343</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>133.5340040774</v>
       </c>
       <c r="I26" t="n">
-        <v>27.52412960442049</v>
+        <v>27.52412960442055</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.03037772754898</v>
+        <v>14.03037772754902</v>
       </c>
       <c r="T26" t="n">
-        <v>8.978123394335746</v>
+        <v>8.978123394335768</v>
       </c>
       <c r="U26" t="n">
-        <v>36.66251709945433</v>
+        <v>36.66251709945436</v>
       </c>
       <c r="V26" t="n">
         <v>107.3917542570231</v>
       </c>
       <c r="W26" t="n">
-        <v>124.4084344736379</v>
+        <v>124.408434473638</v>
       </c>
       <c r="X26" t="n">
         <v>146.2946849425772</v>
       </c>
       <c r="Y26" t="n">
-        <v>168.7975380663209</v>
+        <v>168.797538066321</v>
       </c>
     </row>
     <row r="27">
@@ -2637,10 +2637,10 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2676,31 +2676,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.873689458423112</v>
+        <v>6.873689458423129</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>191.5914073600452</v>
       </c>
       <c r="T27" t="n">
-        <v>1.483027934777508</v>
+        <v>214.9710572869065</v>
       </c>
       <c r="U27" t="n">
-        <v>102.6457220652506</v>
+        <v>23.74004232671968</v>
       </c>
       <c r="V27" t="n">
-        <v>27.16089156327328</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
-        <v>266.7045835770116</v>
+        <v>53.21655422488266</v>
       </c>
       <c r="X27" t="n">
-        <v>3.824885087341642</v>
+        <v>3.82488508734167</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.896256781896653</v>
+        <v>14.7223867246317</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>21.95049958086751</v>
+        <v>21.95049958086754</v>
       </c>
       <c r="T28" t="n">
-        <v>10.27364790174307</v>
+        <v>10.2736479017431</v>
       </c>
       <c r="U28" t="n">
-        <v>75.1685291330777</v>
+        <v>75.16852913307773</v>
       </c>
       <c r="V28" t="n">
-        <v>31.62098583232094</v>
+        <v>31.62098583232097</v>
       </c>
       <c r="W28" t="n">
-        <v>76.82267773720636</v>
+        <v>76.82267773720639</v>
       </c>
       <c r="X28" t="n">
-        <v>8.431426056113565</v>
+        <v>8.431426056113594</v>
       </c>
       <c r="Y28" t="n">
-        <v>3.653243462039455</v>
+        <v>3.653243462039484</v>
       </c>
     </row>
     <row r="29">
@@ -2789,10 +2789,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>160.5992110257044</v>
+        <v>160.5992110257043</v>
       </c>
       <c r="C29" t="n">
-        <v>136.7174680290499</v>
+        <v>136.7174680290498</v>
       </c>
       <c r="D29" t="n">
         <v>124.2841302900983</v>
@@ -2810,7 +2810,7 @@
         <v>133.5340040774</v>
       </c>
       <c r="I29" t="n">
-        <v>27.5241296044205</v>
+        <v>27.52412960442049</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.03037772754898</v>
+        <v>14.03037772754896</v>
       </c>
       <c r="T29" t="n">
-        <v>8.978123394335746</v>
+        <v>8.978123394335718</v>
       </c>
       <c r="U29" t="n">
-        <v>36.66251709945433</v>
+        <v>36.66251709945431</v>
       </c>
       <c r="V29" t="n">
-        <v>107.3917542570231</v>
+        <v>107.391754257023</v>
       </c>
       <c r="W29" t="n">
         <v>124.4084344736379</v>
       </c>
       <c r="X29" t="n">
-        <v>146.2946849425772</v>
+        <v>146.2946849425771</v>
       </c>
       <c r="Y29" t="n">
         <v>168.7975380663209</v>
@@ -2874,7 +2874,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>37.24522222620194</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2913,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.873689458423112</v>
+        <v>6.873689458423129</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>1.483027934777508</v>
+        <v>214.9710572869065</v>
       </c>
       <c r="U30" t="n">
-        <v>237.2280716788486</v>
+        <v>23.74004232671962</v>
       </c>
       <c r="V30" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
-        <v>53.21655422488263</v>
+        <v>53.2165542248826</v>
       </c>
       <c r="X30" t="n">
-        <v>3.824885087341642</v>
+        <v>3.824885087341613</v>
       </c>
       <c r="Y30" t="n">
-        <v>9.896256781896653</v>
+        <v>206.3137940846771</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>21.95049958086751</v>
+        <v>21.95049958086748</v>
       </c>
       <c r="T31" t="n">
-        <v>10.27364790174307</v>
+        <v>10.27364790174304</v>
       </c>
       <c r="U31" t="n">
-        <v>75.1685291330777</v>
+        <v>75.16852913307767</v>
       </c>
       <c r="V31" t="n">
-        <v>31.62098583232094</v>
+        <v>31.62098583232091</v>
       </c>
       <c r="W31" t="n">
-        <v>76.82267773720636</v>
+        <v>76.82267773720633</v>
       </c>
       <c r="X31" t="n">
-        <v>8.431426056113565</v>
+        <v>8.431426056113537</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.653243462039455</v>
+        <v>3.653243462039427</v>
       </c>
     </row>
     <row r="32">
@@ -3105,10 +3105,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3120,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>50.18634302898088</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3153,25 +3153,25 @@
         <v>6.873689458423112</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>134.7218599774646</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0.5731434755569156</v>
+        <v>65.90835863775514</v>
       </c>
       <c r="U33" t="n">
         <v>22.83015786749906</v>
       </c>
       <c r="V33" t="n">
-        <v>26.25100710405269</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W33" t="n">
-        <v>52.30666976566204</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
-        <v>217.3129144394706</v>
+        <v>2.915000628121049</v>
       </c>
       <c r="Y33" t="n">
         <v>8.986372322676061</v>
@@ -3263,16 +3263,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>102.0281659433315</v>
+        <v>102.0281659433314</v>
       </c>
       <c r="C35" t="n">
-        <v>78.14642294667698</v>
+        <v>78.14642294667692</v>
       </c>
       <c r="D35" t="n">
-        <v>65.71308520772544</v>
+        <v>65.71308520772538</v>
       </c>
       <c r="E35" t="n">
-        <v>99.41983762713431</v>
+        <v>99.41983762713426</v>
       </c>
       <c r="F35" t="n">
         <v>131.1401752055116</v>
@@ -3281,7 +3281,7 @@
         <v>146.7791605148161</v>
       </c>
       <c r="H35" t="n">
-        <v>74.96295899502712</v>
+        <v>74.96295899502707</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3323,13 +3323,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>48.82070917465018</v>
+        <v>48.82070917465012</v>
       </c>
       <c r="W35" t="n">
-        <v>65.83738939126505</v>
+        <v>65.83738939126499</v>
       </c>
       <c r="X35" t="n">
-        <v>87.72363986020429</v>
+        <v>87.72363986020423</v>
       </c>
       <c r="Y35" t="n">
         <v>110.226492983948</v>
@@ -3345,16 +3345,16 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>27.78097382572689</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3363,10 +3363,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>107.364552236389</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>52.47830382393109</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3387,22 +3387,22 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>6.873689458423112</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>191.5914073600452</v>
       </c>
       <c r="T36" t="n">
         <v>214.9710572869065</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>96.15633393068123</v>
       </c>
       <c r="V36" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>16.59748405070482</v>
+        <v>16.59748405070476</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>18.25163265483349</v>
+        <v>18.25163265483343</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,16 +3500,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>102.0281659433315</v>
+        <v>102.0281659433314</v>
       </c>
       <c r="C38" t="n">
-        <v>78.14642294667698</v>
+        <v>78.14642294667692</v>
       </c>
       <c r="D38" t="n">
-        <v>65.71308520772544</v>
+        <v>65.71308520772538</v>
       </c>
       <c r="E38" t="n">
-        <v>99.41983762713431</v>
+        <v>99.41983762713426</v>
       </c>
       <c r="F38" t="n">
         <v>131.1401752055116</v>
@@ -3518,7 +3518,7 @@
         <v>146.7791605148161</v>
       </c>
       <c r="H38" t="n">
-        <v>74.96295899502712</v>
+        <v>74.96295899502707</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3560,13 +3560,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>48.82070917465018</v>
+        <v>48.82070917465012</v>
       </c>
       <c r="W38" t="n">
-        <v>65.83738939126505</v>
+        <v>65.83738939126499</v>
       </c>
       <c r="X38" t="n">
-        <v>87.72363986020429</v>
+        <v>87.72363986020423</v>
       </c>
       <c r="Y38" t="n">
         <v>110.226492983948</v>
@@ -3582,10 +3582,10 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>54.39903635063141</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3633,19 +3633,19 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>64.38146532381766</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>237.2280716788486</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>260.4612548573207</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>16.59748405070482</v>
+        <v>16.59748405070476</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>18.25163265483349</v>
+        <v>18.25163265483343</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3828,10 +3828,10 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>148.7446376404189</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3861,13 +3861,13 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.873689458423112</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>134.7218599774646</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>191.5914073600452</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3882,7 +3882,7 @@
         <v>25.69242462046213</v>
       </c>
       <c r="X42" t="n">
-        <v>172.2266808662718</v>
+        <v>160.3551797475324</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -4059,10 +4059,10 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4104,19 +4104,19 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>191.5914073600452</v>
       </c>
       <c r="T45" t="n">
-        <v>151.8844728909632</v>
+        <v>214.9710572869065</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>76.68513320153698</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>266.7045835770116</v>
+        <v>25.69242462046213</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.244751028117094</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="C8" t="n">
-        <v>7.244751028117094</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="D8" t="n">
-        <v>7.244751028117094</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="E8" t="n">
-        <v>7.244751028117094</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="F8" t="n">
         <v>3.833742919262513</v>
@@ -4835,19 +4835,19 @@
         <v>7.244751028117094</v>
       </c>
       <c r="U8" t="n">
-        <v>7.244751028117094</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="V8" t="n">
-        <v>7.244751028117094</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="W8" t="n">
-        <v>7.244751028117094</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="X8" t="n">
-        <v>7.244751028117094</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="Y8" t="n">
-        <v>7.244751028117094</v>
+        <v>7.065308212205419</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.833742919262513</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="C9" t="n">
-        <v>3.833742919262513</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="D9" t="n">
-        <v>3.833742919262513</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="E9" t="n">
-        <v>3.833742919262513</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="F9" t="n">
-        <v>3.833742919262513</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="G9" t="n">
-        <v>3.833742919262513</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="H9" t="n">
-        <v>3.833742919262513</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="I9" t="n">
-        <v>3.833742919262513</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="J9" t="n">
         <v>0.2813495544899843</v>
@@ -4887,16 +4887,16 @@
         <v>3.45619840956866</v>
       </c>
       <c r="L9" t="n">
-        <v>3.622375514058549</v>
+        <v>6.937899146382215</v>
       </c>
       <c r="M9" t="n">
-        <v>7.104076250872104</v>
+        <v>10.41959988319577</v>
       </c>
       <c r="N9" t="n">
-        <v>10.58577698768566</v>
+        <v>10.41959988319577</v>
       </c>
       <c r="O9" t="n">
-        <v>14.06747772449921</v>
+        <v>13.90130062000932</v>
       </c>
       <c r="P9" t="n">
         <v>14.06747772449921</v>
@@ -4908,25 +4908,25 @@
         <v>14.06747772449921</v>
       </c>
       <c r="S9" t="n">
-        <v>14.06747772449921</v>
+        <v>10.51508435972668</v>
       </c>
       <c r="T9" t="n">
-        <v>10.93852964880757</v>
+        <v>10.51508435972668</v>
       </c>
       <c r="U9" t="n">
-        <v>10.93852964880757</v>
+        <v>6.962690994954155</v>
       </c>
       <c r="V9" t="n">
-        <v>7.386136284035041</v>
+        <v>6.962690994954155</v>
       </c>
       <c r="W9" t="n">
-        <v>7.386136284035041</v>
+        <v>3.410297630181626</v>
       </c>
       <c r="X9" t="n">
-        <v>3.833742919262513</v>
+        <v>3.410297630181626</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.833742919262513</v>
+        <v>0.2813495544899843</v>
       </c>
     </row>
     <row r="10">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>620.6070462850582</v>
+        <v>185.6650144949757</v>
       </c>
       <c r="C11" t="n">
-        <v>620.6070462850582</v>
+        <v>185.6650144949757</v>
       </c>
       <c r="D11" t="n">
-        <v>459.3642222520417</v>
+        <v>185.6650144949757</v>
       </c>
       <c r="E11" t="n">
-        <v>268.9742777305898</v>
+        <v>185.6650144949757</v>
       </c>
       <c r="F11" t="n">
-        <v>78.58433320913795</v>
+        <v>185.6650144949757</v>
       </c>
       <c r="G11" t="n">
-        <v>78.58433320913795</v>
+        <v>185.6650144949757</v>
       </c>
       <c r="H11" t="n">
-        <v>78.58433320913795</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="I11" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="J11" t="n">
         <v>115.4202186115223</v>
@@ -5051,40 +5051,40 @@
         <v>488.6225878624722</v>
       </c>
       <c r="N11" t="n">
-        <v>567.3429956794745</v>
+        <v>675.2237724879471</v>
       </c>
       <c r="O11" t="n">
-        <v>753.9441803049494</v>
+        <v>709.4340675647295</v>
       </c>
       <c r="P11" t="n">
-        <v>753.9441803049494</v>
+        <v>709.4340675647295</v>
       </c>
       <c r="Q11" t="n">
-        <v>753.9441803049494</v>
+        <v>753.9441803049492</v>
       </c>
       <c r="R11" t="n">
-        <v>753.9441803049494</v>
+        <v>737.0313769686364</v>
       </c>
       <c r="S11" t="n">
-        <v>738.1153003244181</v>
+        <v>687.1559797664779</v>
       </c>
       <c r="T11" t="n">
-        <v>693.3431903275252</v>
+        <v>642.3838697695852</v>
       </c>
       <c r="U11" t="n">
-        <v>620.6070462850582</v>
+        <v>642.3838697695852</v>
       </c>
       <c r="V11" t="n">
-        <v>620.6070462850582</v>
+        <v>498.2040518305841</v>
       </c>
       <c r="W11" t="n">
-        <v>620.6070462850582</v>
+        <v>336.8356680162146</v>
       </c>
       <c r="X11" t="n">
-        <v>620.6070462850582</v>
+        <v>336.8356680162146</v>
       </c>
       <c r="Y11" t="n">
-        <v>620.6070462850582</v>
+        <v>185.6650144949757</v>
       </c>
     </row>
     <row r="12">
@@ -5094,34 +5094,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>24.54998226753833</v>
+        <v>24.54998226753826</v>
       </c>
       <c r="C12" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="D12" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="E12" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="F12" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="G12" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="H12" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="I12" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="J12" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="K12" t="n">
-        <v>53.03690762936464</v>
+        <v>53.03690762936461</v>
       </c>
       <c r="L12" t="n">
         <v>170.3626975743617</v>
@@ -5130,40 +5130,40 @@
         <v>352.031024757628</v>
       </c>
       <c r="N12" t="n">
-        <v>538.632209383103</v>
+        <v>538.6322093831029</v>
       </c>
       <c r="O12" t="n">
-        <v>670.3253369263742</v>
+        <v>670.325336926374</v>
       </c>
       <c r="P12" t="n">
-        <v>753.9441803049494</v>
+        <v>753.9441803049492</v>
       </c>
       <c r="Q12" t="n">
-        <v>753.9441803049494</v>
+        <v>747.0010596398754</v>
       </c>
       <c r="R12" t="n">
-        <v>753.9441803049494</v>
+        <v>747.0010596398754</v>
       </c>
       <c r="S12" t="n">
-        <v>563.5542357834976</v>
+        <v>556.6111151184235</v>
       </c>
       <c r="T12" t="n">
-        <v>373.1642912620457</v>
+        <v>519.4098086160342</v>
       </c>
       <c r="U12" t="n">
-        <v>313.4811520405228</v>
+        <v>329.0198640945823</v>
       </c>
       <c r="V12" t="n">
-        <v>250.3426095497539</v>
+        <v>265.8813216038134</v>
       </c>
       <c r="W12" t="n">
-        <v>109.8163185043204</v>
+        <v>109.8163185043202</v>
       </c>
       <c r="X12" t="n">
-        <v>70.24949972661372</v>
+        <v>70.24949972661361</v>
       </c>
       <c r="Y12" t="n">
-        <v>24.54998226753833</v>
+        <v>24.54998226753826</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.59847835882615</v>
+        <v>15.5984783588262</v>
       </c>
       <c r="C13" t="n">
-        <v>15.59847835882615</v>
+        <v>15.5984783588262</v>
       </c>
       <c r="D13" t="n">
-        <v>15.59847835882615</v>
+        <v>15.5984783588262</v>
       </c>
       <c r="E13" t="n">
-        <v>51.69944476976898</v>
+        <v>15.5984783588262</v>
       </c>
       <c r="F13" t="n">
-        <v>51.69944476976898</v>
+        <v>44.36669629273871</v>
       </c>
       <c r="G13" t="n">
-        <v>51.69944476976898</v>
+        <v>44.36669629273871</v>
       </c>
       <c r="H13" t="n">
-        <v>51.69944476976898</v>
+        <v>56.56064408529797</v>
       </c>
       <c r="I13" t="n">
-        <v>64.8545247805105</v>
+        <v>69.71572409603955</v>
       </c>
       <c r="J13" t="n">
-        <v>64.8545247805105</v>
+        <v>69.71572409603955</v>
       </c>
       <c r="K13" t="n">
-        <v>64.8545247805105</v>
+        <v>179.7131918283021</v>
       </c>
       <c r="L13" t="n">
-        <v>209.3804803864796</v>
+        <v>179.7131918283021</v>
       </c>
       <c r="M13" t="n">
-        <v>263.0545473697165</v>
+        <v>331.1045263065712</v>
       </c>
       <c r="N13" t="n">
-        <v>263.0545473697165</v>
+        <v>331.1045263065712</v>
       </c>
       <c r="O13" t="n">
-        <v>402.306907601677</v>
+        <v>470.3568865385318</v>
       </c>
       <c r="P13" t="n">
-        <v>520.770111631706</v>
+        <v>470.3568865385318</v>
       </c>
       <c r="Q13" t="n">
-        <v>520.770111631706</v>
+        <v>520.7701116317056</v>
       </c>
       <c r="R13" t="n">
-        <v>495.225215142952</v>
+        <v>495.2252151429517</v>
       </c>
       <c r="S13" t="n">
-        <v>437.3496948566333</v>
+        <v>437.3496948566331</v>
       </c>
       <c r="T13" t="n">
-        <v>391.2689742461979</v>
+        <v>391.2689742461977</v>
       </c>
       <c r="U13" t="n">
-        <v>279.6378685536063</v>
+        <v>279.6378685536061</v>
       </c>
       <c r="V13" t="n">
-        <v>211.9941803365266</v>
+        <v>211.9941803365264</v>
       </c>
       <c r="W13" t="n">
-        <v>98.69221746804746</v>
+        <v>98.69221746804735</v>
       </c>
       <c r="X13" t="n">
-        <v>54.47232700471257</v>
+        <v>54.4723270047125</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>323.2888940598871</v>
+        <v>90.62238278860825</v>
       </c>
       <c r="C14" t="n">
-        <v>323.2888940598871</v>
+        <v>90.62238278860825</v>
       </c>
       <c r="D14" t="n">
-        <v>323.2888940598871</v>
+        <v>90.62238278860825</v>
       </c>
       <c r="E14" t="n">
-        <v>132.8989495384352</v>
+        <v>90.62238278860825</v>
       </c>
       <c r="F14" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="G14" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="H14" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="I14" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="J14" t="n">
-        <v>115.4202186115223</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="K14" t="n">
-        <v>285.1128385102957</v>
+        <v>184.7715035048724</v>
       </c>
       <c r="L14" t="n">
-        <v>331.8239968493322</v>
+        <v>231.4826618439089</v>
       </c>
       <c r="M14" t="n">
-        <v>412.6751204626776</v>
+        <v>395.4673733443015</v>
       </c>
       <c r="N14" t="n">
-        <v>599.2763050881525</v>
+        <v>470.7843166479637</v>
       </c>
       <c r="O14" t="n">
-        <v>633.4866001649349</v>
+        <v>504.994611724746</v>
       </c>
       <c r="P14" t="n">
-        <v>666.4050806852712</v>
+        <v>666.4050806852709</v>
       </c>
       <c r="Q14" t="n">
-        <v>753.9441803049494</v>
+        <v>753.9441803049492</v>
       </c>
       <c r="R14" t="n">
-        <v>753.9441803049494</v>
+        <v>753.9441803049492</v>
       </c>
       <c r="S14" t="n">
-        <v>704.0687831027908</v>
+        <v>704.0687831027906</v>
       </c>
       <c r="T14" t="n">
-        <v>704.0687831027908</v>
+        <v>659.2966731058979</v>
       </c>
       <c r="U14" t="n">
-        <v>704.0687831027908</v>
+        <v>586.5605290634309</v>
       </c>
       <c r="V14" t="n">
-        <v>704.0687831027908</v>
+        <v>442.3807111244298</v>
       </c>
       <c r="W14" t="n">
-        <v>704.0687831027908</v>
+        <v>281.0123273100601</v>
       </c>
       <c r="X14" t="n">
-        <v>704.0687831027908</v>
+        <v>281.0123273100601</v>
       </c>
       <c r="Y14" t="n">
-        <v>513.6788385813389</v>
+        <v>281.0123273100601</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>278.3605616632327</v>
+        <v>24.54998226753832</v>
       </c>
       <c r="C15" t="n">
-        <v>88.94828739619643</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="D15" t="n">
-        <v>88.94828739619643</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="E15" t="n">
-        <v>88.94828739619643</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="F15" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="G15" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="H15" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="I15" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="J15" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="K15" t="n">
-        <v>53.03690762936464</v>
+        <v>53.03690762936461</v>
       </c>
       <c r="L15" t="n">
-        <v>170.3626975743617</v>
+        <v>170.3626975743616</v>
       </c>
       <c r="M15" t="n">
-        <v>352.031024757628</v>
+        <v>352.0310247576278</v>
       </c>
       <c r="N15" t="n">
-        <v>538.632209383103</v>
+        <v>538.6322093831028</v>
       </c>
       <c r="O15" t="n">
-        <v>670.3253369263742</v>
+        <v>670.325336926374</v>
       </c>
       <c r="P15" t="n">
-        <v>753.9441803049494</v>
+        <v>753.9441803049492</v>
       </c>
       <c r="Q15" t="n">
-        <v>753.9441803049494</v>
+        <v>753.9441803049492</v>
       </c>
       <c r="R15" t="n">
-        <v>753.9441803049494</v>
+        <v>617.8614934590254</v>
       </c>
       <c r="S15" t="n">
-        <v>740.3586818094907</v>
+        <v>604.2759949635666</v>
       </c>
       <c r="T15" t="n">
-        <v>703.1573753071013</v>
+        <v>567.0746884611773</v>
       </c>
       <c r="U15" t="n">
-        <v>643.4742360855785</v>
+        <v>376.6847439397254</v>
       </c>
       <c r="V15" t="n">
-        <v>453.0842915641266</v>
+        <v>313.5462014489565</v>
       </c>
       <c r="W15" t="n">
-        <v>363.6268979000149</v>
+        <v>224.0888077848447</v>
       </c>
       <c r="X15" t="n">
-        <v>324.0600791223081</v>
+        <v>184.521989007138</v>
       </c>
       <c r="Y15" t="n">
-        <v>278.3605616632327</v>
+        <v>24.54998226753832</v>
       </c>
     </row>
     <row r="16">
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="C16" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="D16" t="n">
-        <v>47.70840606894096</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="E16" t="n">
-        <v>47.70840606894096</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="F16" t="n">
-        <v>47.70840606894096</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="G16" t="n">
-        <v>47.70840606894096</v>
+        <v>24.42543511222853</v>
       </c>
       <c r="H16" t="n">
-        <v>47.70840606894096</v>
+        <v>24.42543511222853</v>
       </c>
       <c r="I16" t="n">
-        <v>60.86348607968249</v>
+        <v>37.58051512297006</v>
       </c>
       <c r="J16" t="n">
-        <v>60.86348607968249</v>
+        <v>37.58051512297006</v>
       </c>
       <c r="K16" t="n">
-        <v>60.86348607968249</v>
+        <v>37.58051512297006</v>
       </c>
       <c r="L16" t="n">
-        <v>205.3894416856516</v>
+        <v>182.1064707289391</v>
       </c>
       <c r="M16" t="n">
-        <v>356.7807761639207</v>
+        <v>333.4978052072082</v>
       </c>
       <c r="N16" t="n">
-        <v>470.3568865385322</v>
+        <v>333.4978052072082</v>
       </c>
       <c r="O16" t="n">
         <v>470.3568865385322</v>
@@ -5476,10 +5476,10 @@
         <v>98.69221746804746</v>
       </c>
       <c r="X16" t="n">
-        <v>54.47232700471257</v>
+        <v>54.47232700471256</v>
       </c>
       <c r="Y16" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>463.3662739417496</v>
+        <v>463.3662739417495</v>
       </c>
       <c r="C17" t="n">
-        <v>410.0798406731528</v>
+        <v>410.0798406731529</v>
       </c>
       <c r="D17" t="n">
-        <v>369.352334413598</v>
+        <v>369.3523344135982</v>
       </c>
       <c r="E17" t="n">
-        <v>294.5776034879737</v>
+        <v>294.577603487974</v>
       </c>
       <c r="F17" t="n">
-        <v>187.7621275336854</v>
+        <v>187.7621275336859</v>
       </c>
       <c r="G17" t="n">
-        <v>65.14969672151406</v>
+        <v>65.14969672151392</v>
       </c>
       <c r="H17" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="I17" t="n">
-        <v>15.07888360609899</v>
+        <v>70.95425539993047</v>
       </c>
       <c r="J17" t="n">
-        <v>15.07888360609899</v>
+        <v>70.95425539993047</v>
       </c>
       <c r="K17" t="n">
-        <v>201.680068231574</v>
+        <v>257.5554400254054</v>
       </c>
       <c r="L17" t="n">
-        <v>248.3912265706105</v>
+        <v>304.2665983644418</v>
       </c>
       <c r="M17" t="n">
-        <v>434.9924111960855</v>
+        <v>385.1177219777872</v>
       </c>
       <c r="N17" t="n">
-        <v>510.3093544997478</v>
+        <v>486.304332428944</v>
       </c>
       <c r="O17" t="n">
-        <v>696.9105391252227</v>
+        <v>520.5146275057263</v>
       </c>
       <c r="P17" t="n">
-        <v>696.9105391252227</v>
+        <v>520.5146275057263</v>
       </c>
       <c r="Q17" t="n">
-        <v>696.9105391252227</v>
+        <v>707.1158121312012</v>
       </c>
       <c r="R17" t="n">
-        <v>753.9441803049494</v>
+        <v>707.1158121312012</v>
       </c>
       <c r="S17" t="n">
-        <v>753.9441803049494</v>
+        <v>707.1158121312012</v>
       </c>
       <c r="T17" t="n">
-        <v>753.9441803049494</v>
+        <v>707.1158121312012</v>
       </c>
       <c r="U17" t="n">
-        <v>753.9441803049494</v>
+        <v>753.9441803049492</v>
       </c>
       <c r="V17" t="n">
         <v>730.2796801394099</v>
       </c>
       <c r="W17" t="n">
-        <v>689.4266140985022</v>
+        <v>689.4266140985021</v>
       </c>
       <c r="X17" t="n">
-        <v>626.4662243515952</v>
+        <v>626.4662243515951</v>
       </c>
       <c r="Y17" t="n">
-        <v>540.7756799342397</v>
+        <v>540.7756799342395</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>373.1642912620457</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="C18" t="n">
-        <v>188.6420874846845</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="D18" t="n">
-        <v>188.6420874846845</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="E18" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="F18" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="G18" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="H18" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="I18" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="J18" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="K18" t="n">
-        <v>53.03690762936464</v>
+        <v>53.03690762936461</v>
       </c>
       <c r="L18" t="n">
-        <v>170.3626975743617</v>
+        <v>170.3626975743616</v>
       </c>
       <c r="M18" t="n">
-        <v>352.0310247576281</v>
+        <v>352.0310247576278</v>
       </c>
       <c r="N18" t="n">
-        <v>538.632209383103</v>
+        <v>538.6322093831028</v>
       </c>
       <c r="O18" t="n">
-        <v>670.3253369263742</v>
+        <v>670.325336926374</v>
       </c>
       <c r="P18" t="n">
-        <v>753.9441803049494</v>
+        <v>753.9441803049492</v>
       </c>
       <c r="Q18" t="n">
-        <v>753.9441803049494</v>
+        <v>747.0010596398754</v>
       </c>
       <c r="R18" t="n">
-        <v>753.9441803049494</v>
+        <v>610.9183727939516</v>
       </c>
       <c r="S18" t="n">
-        <v>753.9441803049494</v>
+        <v>586.2487171704545</v>
       </c>
       <c r="T18" t="n">
-        <v>753.9441803049494</v>
+        <v>395.8587726490026</v>
       </c>
       <c r="U18" t="n">
-        <v>753.9441803049494</v>
+        <v>395.8587726490026</v>
       </c>
       <c r="V18" t="n">
-        <v>753.9441803049494</v>
+        <v>205.4688281275508</v>
       </c>
       <c r="W18" t="n">
-        <v>563.5542357834976</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="X18" t="n">
-        <v>373.1642912620457</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="Y18" t="n">
-        <v>373.1642912620457</v>
+        <v>15.07888360609898</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="C19" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="D19" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="E19" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="F19" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="G19" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="H19" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="I19" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="J19" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="K19" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="L19" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="M19" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="N19" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="O19" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="P19" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="R19" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="S19" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="T19" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="U19" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="V19" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="W19" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="X19" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="Y19" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>463.3662739417495</v>
+        <v>463.3662739417498</v>
       </c>
       <c r="C20" t="n">
         <v>410.0798406731528</v>
@@ -5735,13 +5735,13 @@
         <v>369.3523344135981</v>
       </c>
       <c r="E20" t="n">
-        <v>294.5776034879738</v>
+        <v>294.5776034879739</v>
       </c>
       <c r="F20" t="n">
-        <v>187.7621275336855</v>
+        <v>187.7621275336858</v>
       </c>
       <c r="G20" t="n">
-        <v>65.149696721514</v>
+        <v>65.14969672151459</v>
       </c>
       <c r="H20" t="n">
         <v>15.07888360609898</v>
@@ -5750,37 +5750,37 @@
         <v>15.07888360609898</v>
       </c>
       <c r="J20" t="n">
-        <v>103.5094580214283</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="K20" t="n">
-        <v>103.5094580214283</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="L20" t="n">
-        <v>290.1106426469032</v>
+        <v>61.79004194513546</v>
       </c>
       <c r="M20" t="n">
-        <v>370.9617662602486</v>
+        <v>142.6411655584808</v>
       </c>
       <c r="N20" t="n">
-        <v>446.2787095639109</v>
+        <v>217.958108862143</v>
       </c>
       <c r="O20" t="n">
-        <v>632.8798941893858</v>
+        <v>404.5592934876179</v>
       </c>
       <c r="P20" t="n">
-        <v>632.8798941893858</v>
+        <v>591.1604781130928</v>
       </c>
       <c r="Q20" t="n">
-        <v>632.8798941893858</v>
+        <v>753.9441803049492</v>
       </c>
       <c r="R20" t="n">
-        <v>632.8798941893858</v>
+        <v>753.9441803049492</v>
       </c>
       <c r="S20" t="n">
-        <v>632.8798941893858</v>
+        <v>753.9441803049492</v>
       </c>
       <c r="T20" t="n">
-        <v>707.1158121312012</v>
+        <v>753.9441803049492</v>
       </c>
       <c r="U20" t="n">
         <v>753.9441803049492</v>
@@ -5792,10 +5792,10 @@
         <v>689.4266140985021</v>
       </c>
       <c r="X20" t="n">
-        <v>626.466224351595</v>
+        <v>626.4662243515952</v>
       </c>
       <c r="Y20" t="n">
-        <v>540.7756799342396</v>
+        <v>540.7756799342399</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>194.6284383351104</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="C21" t="n">
-        <v>194.6284383351104</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="D21" t="n">
-        <v>194.6284383351104</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="E21" t="n">
-        <v>194.6284383351104</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="F21" t="n">
-        <v>34.20072205235448</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="G21" t="n">
         <v>15.07888360609898</v>
@@ -5832,13 +5832,13 @@
         <v>15.07888360609898</v>
       </c>
       <c r="K21" t="n">
-        <v>53.03690762936463</v>
+        <v>53.03690762936461</v>
       </c>
       <c r="L21" t="n">
-        <v>170.3626975743617</v>
+        <v>170.3626975743616</v>
       </c>
       <c r="M21" t="n">
-        <v>352.031024757628</v>
+        <v>352.0310247576278</v>
       </c>
       <c r="N21" t="n">
         <v>538.6322093831028</v>
@@ -5850,31 +5850,31 @@
         <v>753.9441803049492</v>
       </c>
       <c r="Q21" t="n">
-        <v>753.9441803049492</v>
+        <v>747.0010596398754</v>
       </c>
       <c r="R21" t="n">
-        <v>753.9441803049492</v>
+        <v>610.9183727939516</v>
       </c>
       <c r="S21" t="n">
-        <v>563.5542357834973</v>
+        <v>420.5284282724997</v>
       </c>
       <c r="T21" t="n">
-        <v>563.5542357834973</v>
+        <v>230.1384837510479</v>
       </c>
       <c r="U21" t="n">
-        <v>563.5542357834973</v>
+        <v>230.1384837510479</v>
       </c>
       <c r="V21" t="n">
-        <v>373.1642912620455</v>
+        <v>230.1384837510479</v>
       </c>
       <c r="W21" t="n">
-        <v>373.1642912620455</v>
+        <v>230.1384837510479</v>
       </c>
       <c r="X21" t="n">
-        <v>373.1642912620455</v>
+        <v>39.74853922959602</v>
       </c>
       <c r="Y21" t="n">
-        <v>373.1642912620455</v>
+        <v>39.74853922959602</v>
       </c>
     </row>
     <row r="22">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>463.3662739417495</v>
+        <v>463.3662739417487</v>
       </c>
       <c r="C23" t="n">
-        <v>410.0798406731527</v>
+        <v>410.0798406731519</v>
       </c>
       <c r="D23" t="n">
-        <v>369.352334413598</v>
+        <v>369.3523344135974</v>
       </c>
       <c r="E23" t="n">
-        <v>294.5776034879738</v>
+        <v>294.5776034879734</v>
       </c>
       <c r="F23" t="n">
-        <v>187.7621275336857</v>
+        <v>187.7621275336853</v>
       </c>
       <c r="G23" t="n">
-        <v>65.149696721514</v>
+        <v>65.14969672151393</v>
       </c>
       <c r="H23" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="I23" t="n">
-        <v>70.95425539993045</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="J23" t="n">
-        <v>70.95425539993045</v>
+        <v>28.67076175733727</v>
       </c>
       <c r="K23" t="n">
-        <v>70.95425539993045</v>
+        <v>28.67076175733727</v>
       </c>
       <c r="L23" t="n">
-        <v>257.5554400254055</v>
+        <v>75.38192009637375</v>
       </c>
       <c r="M23" t="n">
-        <v>338.4065636387509</v>
+        <v>156.2330437097191</v>
       </c>
       <c r="N23" t="n">
-        <v>525.0077482642259</v>
+        <v>342.8342283351939</v>
       </c>
       <c r="O23" t="n">
-        <v>559.2180433410083</v>
+        <v>377.0445234119762</v>
       </c>
       <c r="P23" t="n">
-        <v>745.8192279664834</v>
+        <v>563.6457080374511</v>
       </c>
       <c r="Q23" t="n">
-        <v>745.8192279664834</v>
+        <v>563.6457080374511</v>
       </c>
       <c r="R23" t="n">
-        <v>753.9441803049496</v>
+        <v>563.6457080374511</v>
       </c>
       <c r="S23" t="n">
-        <v>753.9441803049496</v>
+        <v>632.8798941893854</v>
       </c>
       <c r="T23" t="n">
-        <v>753.9441803049496</v>
+        <v>707.1158121312008</v>
       </c>
       <c r="U23" t="n">
-        <v>753.9441803049496</v>
+        <v>753.9441803049488</v>
       </c>
       <c r="V23" t="n">
-        <v>730.2796801394098</v>
+        <v>730.279680139409</v>
       </c>
       <c r="W23" t="n">
-        <v>689.426614098502</v>
+        <v>689.426614098501</v>
       </c>
       <c r="X23" t="n">
-        <v>626.466224351595</v>
+        <v>626.4662243515941</v>
       </c>
       <c r="Y23" t="n">
-        <v>540.7756799342396</v>
+        <v>540.7756799342387</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>385.0183828565626</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="C24" t="n">
-        <v>326.1061085727631</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="D24" t="n">
-        <v>165.3259923337949</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="E24" t="n">
-        <v>165.3259923337949</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="F24" t="n">
-        <v>165.3259923337949</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="G24" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="H24" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="I24" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="J24" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="K24" t="n">
-        <v>53.03690762936463</v>
+        <v>53.03690762936424</v>
       </c>
       <c r="L24" t="n">
-        <v>170.3626975743617</v>
+        <v>170.3626975743613</v>
       </c>
       <c r="M24" t="n">
-        <v>352.031024757628</v>
+        <v>352.0310247576275</v>
       </c>
       <c r="N24" t="n">
-        <v>538.632209383103</v>
+        <v>538.6322093831023</v>
       </c>
       <c r="O24" t="n">
-        <v>670.3253369263743</v>
+        <v>670.3253369263736</v>
       </c>
       <c r="P24" t="n">
-        <v>753.9441803049496</v>
+        <v>753.9441803049488</v>
       </c>
       <c r="Q24" t="n">
-        <v>753.9441803049496</v>
+        <v>747.0010596398749</v>
       </c>
       <c r="R24" t="n">
-        <v>753.9441803049496</v>
+        <v>610.9183727939511</v>
       </c>
       <c r="S24" t="n">
-        <v>563.5542357834977</v>
+        <v>420.5284282724994</v>
       </c>
       <c r="T24" t="n">
-        <v>563.5542357834977</v>
+        <v>420.5284282724994</v>
       </c>
       <c r="U24" t="n">
-        <v>563.5542357834977</v>
+        <v>230.1384837510476</v>
       </c>
       <c r="V24" t="n">
-        <v>563.5542357834977</v>
+        <v>230.1384837510476</v>
       </c>
       <c r="W24" t="n">
-        <v>563.5542357834977</v>
+        <v>230.1384837510476</v>
       </c>
       <c r="X24" t="n">
-        <v>563.5542357834977</v>
+        <v>193.6147365330341</v>
       </c>
       <c r="Y24" t="n">
-        <v>563.5542357834977</v>
+        <v>193.6147365330341</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="C25" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="D25" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="E25" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="F25" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="G25" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="H25" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="I25" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="J25" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="K25" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="L25" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="M25" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="N25" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="O25" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="P25" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="R25" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="S25" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="T25" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="U25" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="V25" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="W25" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="X25" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="Y25" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609897</v>
       </c>
     </row>
     <row r="26">
@@ -6203,31 +6203,31 @@
         <v>1020.877441161907</v>
       </c>
       <c r="C26" t="n">
-        <v>882.778988607311</v>
+        <v>882.7789886073109</v>
       </c>
       <c r="D26" t="n">
-        <v>757.2394630617571</v>
+        <v>757.239463061757</v>
       </c>
       <c r="E26" t="n">
-        <v>597.6527128501336</v>
+        <v>597.6527128501335</v>
       </c>
       <c r="F26" t="n">
-        <v>406.0252176098463</v>
+        <v>406.0252176098461</v>
       </c>
       <c r="G26" t="n">
-        <v>198.6007675116755</v>
+        <v>198.6007675116751</v>
       </c>
       <c r="H26" t="n">
-        <v>63.71793511026092</v>
+        <v>63.71793511026097</v>
       </c>
       <c r="I26" t="n">
-        <v>35.91578399468466</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="J26" t="n">
-        <v>171.24992184767</v>
+        <v>171.2499218476701</v>
       </c>
       <c r="K26" t="n">
-        <v>375.9353445940055</v>
+        <v>375.9353445940056</v>
       </c>
       <c r="L26" t="n">
         <v>633.9996519916497</v>
@@ -6242,7 +6242,7 @@
         <v>1458.437461161262</v>
       </c>
       <c r="P26" t="n">
-        <v>1654.840732969351</v>
+        <v>1654.84073296935</v>
       </c>
       <c r="Q26" t="n">
         <v>1777.372635436591</v>
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1372.971970978703</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="C27" t="n">
-        <v>1372.971970978703</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="D27" t="n">
-        <v>1212.191854739735</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="E27" t="n">
-        <v>1038.628650861149</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="F27" t="n">
-        <v>1038.628650861149</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="G27" t="n">
-        <v>1038.628650861149</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="H27" t="n">
-        <v>1038.628650861149</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="I27" t="n">
-        <v>1038.628650861149</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="J27" t="n">
-        <v>1038.628650861149</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="K27" t="n">
-        <v>1076.586674884415</v>
+        <v>73.87380801795027</v>
       </c>
       <c r="L27" t="n">
-        <v>1193.912464829412</v>
+        <v>191.1995979629473</v>
       </c>
       <c r="M27" t="n">
-        <v>1375.580792012678</v>
+        <v>372.8679251462136</v>
       </c>
       <c r="N27" t="n">
-        <v>1580.477228812386</v>
+        <v>577.7643619459218</v>
       </c>
       <c r="O27" t="n">
-        <v>1712.170356355658</v>
+        <v>709.457489489193</v>
       </c>
       <c r="P27" t="n">
-        <v>1795.789199734233</v>
+        <v>793.0763328677682</v>
       </c>
       <c r="Q27" t="n">
-        <v>1788.846079069159</v>
+        <v>786.1332122026944</v>
       </c>
       <c r="R27" t="n">
-        <v>1788.846079069159</v>
+        <v>786.1332122026944</v>
       </c>
       <c r="S27" t="n">
-        <v>1788.846079069159</v>
+        <v>592.6065381016386</v>
       </c>
       <c r="T27" t="n">
-        <v>1787.348071054232</v>
+        <v>375.4640559936523</v>
       </c>
       <c r="U27" t="n">
-        <v>1683.665523513575</v>
+        <v>351.484215259592</v>
       </c>
       <c r="V27" t="n">
-        <v>1656.230279510269</v>
+        <v>108.4044971632261</v>
       </c>
       <c r="W27" t="n">
-        <v>1386.83171024056</v>
+        <v>54.65040198657695</v>
       </c>
       <c r="X27" t="n">
-        <v>1382.968189950316</v>
+        <v>50.78688169633283</v>
       </c>
       <c r="Y27" t="n">
-        <v>1372.971970978703</v>
+        <v>35.91578399468465</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>35.91578399468466</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="C28" t="n">
-        <v>35.91578399468466</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="D28" t="n">
-        <v>35.91578399468466</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="E28" t="n">
-        <v>35.91578399468466</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="F28" t="n">
-        <v>35.91578399468466</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="G28" t="n">
-        <v>35.91578399468466</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="H28" t="n">
-        <v>35.91578399468466</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="I28" t="n">
-        <v>35.91578399468466</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="J28" t="n">
-        <v>35.91578399468466</v>
+        <v>102.7267694427745</v>
       </c>
       <c r="K28" t="n">
-        <v>35.91578399468466</v>
+        <v>102.7267694427745</v>
       </c>
       <c r="L28" t="n">
-        <v>215.4345424482159</v>
+        <v>102.7267694427745</v>
       </c>
       <c r="M28" t="n">
-        <v>215.4345424482159</v>
+        <v>102.7267694427745</v>
       </c>
       <c r="N28" t="n">
-        <v>215.4345424482159</v>
+        <v>102.7267694427745</v>
       </c>
       <c r="O28" t="n">
-        <v>266.1390261192994</v>
+        <v>102.7267694427745</v>
       </c>
       <c r="P28" t="n">
-        <v>266.1390261192994</v>
+        <v>256.1827763203654</v>
       </c>
       <c r="Q28" t="n">
-        <v>266.1390261192994</v>
+        <v>256.1827763203654</v>
       </c>
       <c r="R28" t="n">
-        <v>266.1390261192994</v>
+        <v>266.1390261192997</v>
       </c>
       <c r="S28" t="n">
-        <v>243.9668043204434</v>
+        <v>243.9668043204435</v>
       </c>
       <c r="T28" t="n">
-        <v>233.5893821974706</v>
+        <v>233.5893821974707</v>
       </c>
       <c r="U28" t="n">
-        <v>157.6615749923416</v>
+        <v>157.6615749923417</v>
       </c>
       <c r="V28" t="n">
-        <v>125.7211852627244</v>
+        <v>125.7211852627245</v>
       </c>
       <c r="W28" t="n">
-        <v>48.12252088170791</v>
+        <v>48.12252088170796</v>
       </c>
       <c r="X28" t="n">
-        <v>39.60592890583563</v>
+        <v>39.60592890583565</v>
       </c>
       <c r="Y28" t="n">
-        <v>35.91578399468466</v>
+        <v>35.91578399468465</v>
       </c>
     </row>
     <row r="29">
@@ -6440,43 +6440,43 @@
         <v>1020.877441161906</v>
       </c>
       <c r="C29" t="n">
-        <v>882.7789886073105</v>
+        <v>882.7789886073103</v>
       </c>
       <c r="D29" t="n">
-        <v>757.2394630617566</v>
+        <v>757.2394630617565</v>
       </c>
       <c r="E29" t="n">
-        <v>597.6527128501332</v>
+        <v>597.6527128501331</v>
       </c>
       <c r="F29" t="n">
-        <v>406.0252176098458</v>
+        <v>406.0252176098457</v>
       </c>
       <c r="G29" t="n">
         <v>198.600767511675</v>
       </c>
       <c r="H29" t="n">
-        <v>63.7179351102609</v>
+        <v>63.71793511026089</v>
       </c>
       <c r="I29" t="n">
-        <v>35.91578399468465</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="J29" t="n">
-        <v>171.24992184767</v>
+        <v>171.2499218476701</v>
       </c>
       <c r="K29" t="n">
-        <v>375.9353445940055</v>
+        <v>375.9353445940056</v>
       </c>
       <c r="L29" t="n">
-        <v>633.9996519916497</v>
+        <v>633.9996519916494</v>
       </c>
       <c r="M29" t="n">
-        <v>926.2039246636028</v>
+        <v>926.2039246636027</v>
       </c>
       <c r="N29" t="n">
-        <v>1212.874017025873</v>
+        <v>1212.874017025872</v>
       </c>
       <c r="O29" t="n">
-        <v>1458.437461161263</v>
+        <v>1458.437461161262</v>
       </c>
       <c r="P29" t="n">
         <v>1654.84073296935</v>
@@ -6494,10 +6494,10 @@
         <v>1772.548289510106</v>
       </c>
       <c r="U29" t="n">
-        <v>1735.515443955102</v>
+        <v>1735.515443955101</v>
       </c>
       <c r="V29" t="n">
-        <v>1627.038924503564</v>
+        <v>1627.038924503563</v>
       </c>
       <c r="W29" t="n">
         <v>1501.373839176656</v>
@@ -6506,7 +6506,7 @@
         <v>1353.60143014375</v>
       </c>
       <c r="Y29" t="n">
-        <v>1183.098866440396</v>
+        <v>1183.098866440395</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>234.3173368257761</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="C30" t="n">
-        <v>234.3173368257761</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="D30" t="n">
-        <v>73.53722058680782</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="E30" t="n">
-        <v>73.53722058680782</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="F30" t="n">
-        <v>73.53722058680782</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="G30" t="n">
-        <v>73.53722058680782</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="H30" t="n">
-        <v>35.91578399468465</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="I30" t="n">
-        <v>35.91578399468465</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="J30" t="n">
-        <v>35.91578399468465</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="K30" t="n">
-        <v>73.8738080179503</v>
+        <v>73.87380801795027</v>
       </c>
       <c r="L30" t="n">
-        <v>191.1995979629474</v>
+        <v>191.1995979629473</v>
       </c>
       <c r="M30" t="n">
-        <v>372.8679251462137</v>
+        <v>372.8679251462136</v>
       </c>
       <c r="N30" t="n">
-        <v>577.764361945922</v>
+        <v>577.7643619459218</v>
       </c>
       <c r="O30" t="n">
-        <v>709.4574894891932</v>
+        <v>709.457489489193</v>
       </c>
       <c r="P30" t="n">
-        <v>793.0763328677684</v>
+        <v>793.0763328677682</v>
       </c>
       <c r="Q30" t="n">
-        <v>786.1332122026946</v>
+        <v>786.1332122026944</v>
       </c>
       <c r="R30" t="n">
-        <v>786.1332122026946</v>
+        <v>786.1332122026944</v>
       </c>
       <c r="S30" t="n">
-        <v>786.1332122026946</v>
+        <v>786.1332122026944</v>
       </c>
       <c r="T30" t="n">
-        <v>784.6352041877678</v>
+        <v>568.9907300947081</v>
       </c>
       <c r="U30" t="n">
-        <v>545.010889360648</v>
+        <v>545.0108893606479</v>
       </c>
       <c r="V30" t="n">
-        <v>301.9311712642821</v>
+        <v>301.9311712642819</v>
       </c>
       <c r="W30" t="n">
         <v>248.1770760876329</v>
       </c>
       <c r="X30" t="n">
-        <v>244.3135557973889</v>
+        <v>244.3135557973888</v>
       </c>
       <c r="Y30" t="n">
-        <v>234.3173368257761</v>
+        <v>35.91578399468464</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>35.91578399468465</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="C31" t="n">
-        <v>35.91578399468465</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="D31" t="n">
-        <v>103.5381093050887</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="E31" t="n">
-        <v>103.5381093050887</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="F31" t="n">
-        <v>103.5381093050887</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="G31" t="n">
-        <v>103.5381093050887</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="H31" t="n">
-        <v>103.5381093050887</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="I31" t="n">
-        <v>103.5381093050887</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="J31" t="n">
-        <v>103.5381093050887</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="K31" t="n">
-        <v>103.5381093050887</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="L31" t="n">
-        <v>103.5381093050887</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="M31" t="n">
-        <v>103.5381093050887</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="N31" t="n">
-        <v>266.1390261192994</v>
+        <v>230.9097648705989</v>
       </c>
       <c r="O31" t="n">
-        <v>266.1390261192994</v>
+        <v>266.1390261192992</v>
       </c>
       <c r="P31" t="n">
-        <v>266.1390261192994</v>
+        <v>266.1390261192992</v>
       </c>
       <c r="Q31" t="n">
-        <v>266.1390261192994</v>
+        <v>266.1390261192992</v>
       </c>
       <c r="R31" t="n">
-        <v>266.1390261192994</v>
+        <v>266.1390261192992</v>
       </c>
       <c r="S31" t="n">
-        <v>243.9668043204433</v>
+        <v>243.9668043204432</v>
       </c>
       <c r="T31" t="n">
-        <v>233.5893821974705</v>
+        <v>233.5893821974704</v>
       </c>
       <c r="U31" t="n">
-        <v>157.6615749923415</v>
+        <v>157.6615749923414</v>
       </c>
       <c r="V31" t="n">
-        <v>125.7211852627244</v>
+        <v>125.7211852627243</v>
       </c>
       <c r="W31" t="n">
-        <v>48.1225208817079</v>
+        <v>48.12252088170784</v>
       </c>
       <c r="X31" t="n">
-        <v>39.60592890583561</v>
+        <v>39.60592890583558</v>
       </c>
       <c r="Y31" t="n">
-        <v>35.91578399468465</v>
+        <v>35.91578399468464</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1014.162565128079</v>
+        <v>1014.162565128078</v>
       </c>
       <c r="C32" t="n">
-        <v>876.9831877848168</v>
+        <v>876.9831877848163</v>
       </c>
       <c r="D32" t="n">
-        <v>752.3627374505967</v>
+        <v>752.3627374505963</v>
       </c>
       <c r="E32" t="n">
-        <v>593.6950624503072</v>
+        <v>593.6950624503069</v>
       </c>
       <c r="F32" t="n">
-        <v>402.9866424213537</v>
+        <v>402.9866424213533</v>
       </c>
       <c r="G32" t="n">
         <v>196.4812675345173</v>
@@ -6695,49 +6695,49 @@
         <v>62.51751034443699</v>
       </c>
       <c r="I32" t="n">
-        <v>35.63443444019466</v>
+        <v>35.63443444019465</v>
       </c>
       <c r="J32" t="n">
         <v>171.8693579078084</v>
       </c>
       <c r="K32" t="n">
-        <v>377.4555662687724</v>
+        <v>377.4555662687723</v>
       </c>
       <c r="L32" t="n">
-        <v>636.4206592810449</v>
+        <v>614.52746057938</v>
       </c>
       <c r="M32" t="n">
-        <v>929.5257175676263</v>
+        <v>907.6325188659614</v>
       </c>
       <c r="N32" t="n">
         <v>1195.20339684286</v>
       </c>
       <c r="O32" t="n">
-        <v>1441.667626592879</v>
+        <v>1441.667626592878</v>
       </c>
       <c r="P32" t="n">
         <v>1638.971684015594</v>
       </c>
       <c r="Q32" t="n">
-        <v>1762.404372097463</v>
+        <v>1762.404372097462</v>
       </c>
       <c r="R32" t="n">
         <v>1781.721722009733</v>
       </c>
       <c r="S32" t="n">
-        <v>1768.468698506371</v>
+        <v>1768.46869850637</v>
       </c>
       <c r="T32" t="n">
-        <v>1760.318962208275</v>
+        <v>1760.318962208274</v>
       </c>
       <c r="U32" t="n">
         <v>1724.205191864604</v>
       </c>
       <c r="V32" t="n">
-        <v>1616.6477476244</v>
+        <v>1616.647747624399</v>
       </c>
       <c r="W32" t="n">
-        <v>1491.901737508827</v>
+        <v>1491.901737508826</v>
       </c>
       <c r="X32" t="n">
         <v>1345.048403687254</v>
@@ -6753,31 +6753,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>275.7399844940803</v>
+        <v>35.63443444019465</v>
       </c>
       <c r="C33" t="n">
-        <v>86.32771022704404</v>
+        <v>35.63443444019465</v>
       </c>
       <c r="D33" t="n">
-        <v>86.32771022704404</v>
+        <v>35.63443444019465</v>
       </c>
       <c r="E33" t="n">
-        <v>86.32771022704404</v>
+        <v>35.63443444019465</v>
       </c>
       <c r="F33" t="n">
-        <v>86.32771022704404</v>
+        <v>35.63443444019465</v>
       </c>
       <c r="G33" t="n">
-        <v>35.63443444019466</v>
+        <v>35.63443444019465</v>
       </c>
       <c r="H33" t="n">
-        <v>35.63443444019466</v>
+        <v>35.63443444019465</v>
       </c>
       <c r="I33" t="n">
-        <v>35.63443444019466</v>
+        <v>35.63443444019465</v>
       </c>
       <c r="J33" t="n">
-        <v>35.63443444019466</v>
+        <v>35.63443444019465</v>
       </c>
       <c r="K33" t="n">
         <v>73.5924584634603</v>
@@ -6801,28 +6801,28 @@
         <v>785.8518626482046</v>
       </c>
       <c r="R33" t="n">
-        <v>785.8518626482046</v>
+        <v>649.7691758022808</v>
       </c>
       <c r="S33" t="n">
-        <v>785.8518626482046</v>
+        <v>649.7691758022808</v>
       </c>
       <c r="T33" t="n">
-        <v>785.2729298446118</v>
+        <v>583.1950761681846</v>
       </c>
       <c r="U33" t="n">
-        <v>762.2121643218854</v>
+        <v>560.1343106454583</v>
       </c>
       <c r="V33" t="n">
-        <v>735.695995529913</v>
+        <v>317.0545925490923</v>
       </c>
       <c r="W33" t="n">
-        <v>682.8609755645979</v>
+        <v>47.65602327938365</v>
       </c>
       <c r="X33" t="n">
-        <v>463.3529811812942</v>
+        <v>44.7115782004735</v>
       </c>
       <c r="Y33" t="n">
-        <v>454.2758374210154</v>
+        <v>35.63443444019465</v>
       </c>
     </row>
     <row r="34">
@@ -6832,52 +6832,52 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>35.63443444019466</v>
+        <v>35.63443444019465</v>
       </c>
       <c r="C34" t="n">
-        <v>83.0957599511781</v>
+        <v>35.63443444019465</v>
       </c>
       <c r="D34" t="n">
-        <v>151.6188708762106</v>
+        <v>35.63443444019465</v>
       </c>
       <c r="E34" t="n">
-        <v>151.6188708762106</v>
+        <v>35.63443444019465</v>
       </c>
       <c r="F34" t="n">
-        <v>151.6188708762106</v>
+        <v>35.63443444019465</v>
       </c>
       <c r="G34" t="n">
-        <v>151.6188708762106</v>
+        <v>35.63443444019465</v>
       </c>
       <c r="H34" t="n">
-        <v>151.6188708762106</v>
+        <v>35.63443444019465</v>
       </c>
       <c r="I34" t="n">
-        <v>151.6188708762106</v>
+        <v>35.63443444019465</v>
       </c>
       <c r="J34" t="n">
-        <v>151.6188708762106</v>
+        <v>35.63443444019465</v>
       </c>
       <c r="K34" t="n">
-        <v>248.5671146719093</v>
+        <v>35.63443444019465</v>
       </c>
       <c r="L34" t="n">
-        <v>248.5671146719093</v>
+        <v>35.63443444019465</v>
       </c>
       <c r="M34" t="n">
-        <v>248.5671146719093</v>
+        <v>35.63443444019465</v>
       </c>
       <c r="N34" t="n">
-        <v>248.5671146719093</v>
+        <v>105.0673575932525</v>
       </c>
       <c r="O34" t="n">
-        <v>248.5671146719093</v>
+        <v>105.0673575932525</v>
       </c>
       <c r="P34" t="n">
-        <v>248.5671146719093</v>
+        <v>259.4241500854719</v>
       </c>
       <c r="Q34" t="n">
-        <v>248.5671146719093</v>
+        <v>259.4241500854719</v>
       </c>
       <c r="R34" t="n">
         <v>259.4241500854719</v>
@@ -6892,16 +6892,16 @@
         <v>153.7039245925158</v>
       </c>
       <c r="V34" t="n">
-        <v>122.6826100742327</v>
+        <v>122.6826100742326</v>
       </c>
       <c r="W34" t="n">
-        <v>46.00302090455005</v>
+        <v>46.00302090455004</v>
       </c>
       <c r="X34" t="n">
         <v>38.40550414001169</v>
       </c>
       <c r="Y34" t="n">
-        <v>35.63443444019466</v>
+        <v>35.63443444019465</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>623.0203756379699</v>
+        <v>623.0203756379701</v>
       </c>
       <c r="C35" t="n">
-        <v>544.0845948837507</v>
+        <v>544.0845948837509</v>
       </c>
       <c r="D35" t="n">
-        <v>477.7077411385737</v>
+        <v>477.707741138574</v>
       </c>
       <c r="E35" t="n">
-        <v>377.2836627273268</v>
+        <v>377.2836627273271</v>
       </c>
       <c r="F35" t="n">
-        <v>244.8188392874163</v>
+        <v>244.8188392874167</v>
       </c>
       <c r="G35" t="n">
-        <v>96.55706098962315</v>
+        <v>96.5570609896231</v>
       </c>
       <c r="H35" t="n">
         <v>20.83690038858565</v>
       </c>
       <c r="I35" t="n">
-        <v>51.5733467117585</v>
+        <v>51.57334671175856</v>
       </c>
       <c r="J35" t="n">
-        <v>51.5733467117585</v>
+        <v>244.8928191962931</v>
       </c>
       <c r="K35" t="n">
-        <v>91.42945481746085</v>
+        <v>244.8928191962931</v>
       </c>
       <c r="L35" t="n">
-        <v>349.2860971262083</v>
+        <v>502.7494615050406</v>
       </c>
       <c r="M35" t="n">
-        <v>607.1427394349558</v>
+        <v>583.600585118386</v>
       </c>
       <c r="N35" t="n">
-        <v>682.4596827386181</v>
+        <v>658.9175284220482</v>
       </c>
       <c r="O35" t="n">
-        <v>716.6699778154004</v>
+        <v>861.3277823304929</v>
       </c>
       <c r="P35" t="n">
-        <v>971.0585842550366</v>
+        <v>861.3277823304929</v>
       </c>
       <c r="Q35" t="n">
-        <v>971.0585842550366</v>
+        <v>1041.845019429283</v>
       </c>
       <c r="R35" t="n">
-        <v>971.0585842550366</v>
+        <v>1041.845019429283</v>
       </c>
       <c r="S35" t="n">
-        <v>971.0585842550366</v>
+        <v>1041.845019429283</v>
       </c>
       <c r="T35" t="n">
-        <v>1020.155576726193</v>
+        <v>1041.845019429283</v>
       </c>
       <c r="U35" t="n">
         <v>1041.845019429283</v>
       </c>
       <c r="V35" t="n">
-        <v>992.5311717781206</v>
+        <v>992.5311717781203</v>
       </c>
       <c r="W35" t="n">
         <v>926.02875825159</v>
       </c>
       <c r="X35" t="n">
-        <v>837.4190210190604</v>
+        <v>837.4190210190606</v>
       </c>
       <c r="Y35" t="n">
-        <v>726.0791291160825</v>
+        <v>726.0791291160826</v>
       </c>
     </row>
     <row r="36">
@@ -6990,34 +6990,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>317.7752490573172</v>
+        <v>263.2575623565624</v>
       </c>
       <c r="C36" t="n">
-        <v>317.7752490573172</v>
+        <v>73.84528808952615</v>
       </c>
       <c r="D36" t="n">
-        <v>289.7136593343607</v>
+        <v>73.84528808952615</v>
       </c>
       <c r="E36" t="n">
-        <v>289.7136593343607</v>
+        <v>73.84528808952615</v>
       </c>
       <c r="F36" t="n">
-        <v>129.2859430516048</v>
+        <v>73.84528808952615</v>
       </c>
       <c r="G36" t="n">
-        <v>129.2859430516048</v>
+        <v>73.84528808952615</v>
       </c>
       <c r="H36" t="n">
-        <v>129.2859430516048</v>
+        <v>73.84528808952615</v>
       </c>
       <c r="I36" t="n">
-        <v>20.83690038858565</v>
+        <v>73.84528808952615</v>
       </c>
       <c r="J36" t="n">
         <v>20.83690038858565</v>
       </c>
       <c r="K36" t="n">
-        <v>58.79492441185131</v>
+        <v>58.7949244118513</v>
       </c>
       <c r="L36" t="n">
         <v>176.1207143568484</v>
@@ -7035,31 +7035,31 @@
         <v>777.9974492616694</v>
       </c>
       <c r="Q36" t="n">
-        <v>777.9974492616694</v>
+        <v>771.0543285965956</v>
       </c>
       <c r="R36" t="n">
-        <v>777.9974492616694</v>
+        <v>771.0543285965956</v>
       </c>
       <c r="S36" t="n">
-        <v>777.9974492616694</v>
+        <v>577.5276544955399</v>
       </c>
       <c r="T36" t="n">
-        <v>560.8549671536831</v>
+        <v>360.3851723875536</v>
       </c>
       <c r="U36" t="n">
-        <v>560.8549671536831</v>
+        <v>263.2575623565624</v>
       </c>
       <c r="V36" t="n">
-        <v>317.7752490573172</v>
+        <v>263.2575623565624</v>
       </c>
       <c r="W36" t="n">
-        <v>317.7752490573172</v>
+        <v>263.2575623565624</v>
       </c>
       <c r="X36" t="n">
-        <v>317.7752490573172</v>
+        <v>263.2575623565624</v>
       </c>
       <c r="Y36" t="n">
-        <v>317.7752490573172</v>
+        <v>263.2575623565624</v>
       </c>
     </row>
     <row r="37">
@@ -7075,61 +7075,61 @@
         <v>20.83690038858565</v>
       </c>
       <c r="D37" t="n">
-        <v>56.03802837397788</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="E37" t="n">
-        <v>56.03802837397788</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="F37" t="n">
-        <v>56.03802837397788</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="G37" t="n">
-        <v>56.03802837397788</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="H37" t="n">
-        <v>56.03802837397788</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="I37" t="n">
-        <v>56.03802837397788</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="J37" t="n">
-        <v>56.03802837397788</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="K37" t="n">
-        <v>56.03802837397788</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="L37" t="n">
-        <v>56.03802837397788</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="M37" t="n">
-        <v>56.03802837397788</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="N37" t="n">
-        <v>56.03802837397788</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="O37" t="n">
-        <v>56.03802837397788</v>
+        <v>56.03802837397777</v>
       </c>
       <c r="P37" t="n">
-        <v>56.03802837397788</v>
+        <v>56.03802837397777</v>
       </c>
       <c r="Q37" t="n">
-        <v>56.03802837397788</v>
+        <v>56.03802837397777</v>
       </c>
       <c r="R37" t="n">
-        <v>56.03802837397788</v>
+        <v>56.03802837397777</v>
       </c>
       <c r="S37" t="n">
-        <v>56.03802837397788</v>
+        <v>56.03802837397777</v>
       </c>
       <c r="T37" t="n">
-        <v>56.03802837397788</v>
+        <v>56.03802837397777</v>
       </c>
       <c r="U37" t="n">
-        <v>39.27289296922554</v>
+        <v>39.27289296922548</v>
       </c>
       <c r="V37" t="n">
-        <v>39.27289296922554</v>
+        <v>39.27289296922548</v>
       </c>
       <c r="W37" t="n">
         <v>20.83690038858565</v>
@@ -7148,67 +7148,67 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>623.0203756379705</v>
+        <v>623.0203756379706</v>
       </c>
       <c r="C38" t="n">
-        <v>544.0845948837513</v>
+        <v>544.0845948837515</v>
       </c>
       <c r="D38" t="n">
-        <v>477.707741138574</v>
+        <v>477.7077411385742</v>
       </c>
       <c r="E38" t="n">
-        <v>377.2836627273272</v>
+        <v>377.2836627273275</v>
       </c>
       <c r="F38" t="n">
-        <v>244.8188392874164</v>
+        <v>244.8188392874167</v>
       </c>
       <c r="G38" t="n">
-        <v>96.55706098962315</v>
+        <v>96.5570609896231</v>
       </c>
       <c r="H38" t="n">
         <v>20.83690038858565</v>
       </c>
       <c r="I38" t="n">
-        <v>20.83690038858565</v>
+        <v>51.57334671175856</v>
       </c>
       <c r="J38" t="n">
-        <v>20.83690038858565</v>
+        <v>150.7774989897574</v>
       </c>
       <c r="K38" t="n">
-        <v>278.6935426973332</v>
+        <v>150.7774989897574</v>
       </c>
       <c r="L38" t="n">
-        <v>325.4047010363697</v>
+        <v>197.4886573287939</v>
       </c>
       <c r="M38" t="n">
-        <v>583.2613433451172</v>
+        <v>455.3452996375414</v>
       </c>
       <c r="N38" t="n">
-        <v>841.1179856538647</v>
+        <v>713.2019419462888</v>
       </c>
       <c r="O38" t="n">
-        <v>1041.845019429283</v>
+        <v>971.0585842550363</v>
       </c>
       <c r="P38" t="n">
-        <v>1041.845019429283</v>
+        <v>971.0585842550363</v>
       </c>
       <c r="Q38" t="n">
-        <v>1041.845019429283</v>
+        <v>971.0585842550363</v>
       </c>
       <c r="R38" t="n">
-        <v>1041.845019429283</v>
+        <v>971.0585842550363</v>
       </c>
       <c r="S38" t="n">
-        <v>1041.845019429283</v>
+        <v>971.0585842550363</v>
       </c>
       <c r="T38" t="n">
-        <v>1041.845019429283</v>
+        <v>1020.155576726193</v>
       </c>
       <c r="U38" t="n">
         <v>1041.845019429283</v>
       </c>
       <c r="V38" t="n">
-        <v>992.5311717781209</v>
+        <v>992.5311717781208</v>
       </c>
       <c r="W38" t="n">
         <v>926.0287582515905</v>
@@ -7227,10 +7227,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>210.2491746556219</v>
+        <v>75.78542195488001</v>
       </c>
       <c r="C39" t="n">
-        <v>20.83690038858565</v>
+        <v>75.78542195488001</v>
       </c>
       <c r="D39" t="n">
         <v>20.83690038858565</v>
@@ -7254,7 +7254,7 @@
         <v>20.83690038858565</v>
       </c>
       <c r="K39" t="n">
-        <v>58.79492441185131</v>
+        <v>58.7949244118513</v>
       </c>
       <c r="L39" t="n">
         <v>176.1207143568484</v>
@@ -7281,22 +7281,22 @@
         <v>777.9974492616694</v>
       </c>
       <c r="T39" t="n">
-        <v>712.965666106298</v>
+        <v>777.9974492616694</v>
       </c>
       <c r="U39" t="n">
-        <v>473.3413512791782</v>
+        <v>538.3731344345496</v>
       </c>
       <c r="V39" t="n">
-        <v>473.3413512791782</v>
+        <v>295.2934163381836</v>
       </c>
       <c r="W39" t="n">
-        <v>210.2491746556219</v>
+        <v>295.2934163381836</v>
       </c>
       <c r="X39" t="n">
-        <v>210.2491746556219</v>
+        <v>75.78542195488001</v>
       </c>
       <c r="Y39" t="n">
-        <v>210.2491746556219</v>
+        <v>75.78542195488001</v>
       </c>
     </row>
     <row r="40">
@@ -7321,52 +7321,52 @@
         <v>20.83690038858565</v>
       </c>
       <c r="G40" t="n">
-        <v>56.03802837397788</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="H40" t="n">
-        <v>56.03802837397788</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="I40" t="n">
-        <v>56.03802837397788</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="J40" t="n">
-        <v>56.03802837397788</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="K40" t="n">
-        <v>56.03802837397788</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="L40" t="n">
-        <v>56.03802837397788</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="M40" t="n">
-        <v>56.03802837397788</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="N40" t="n">
-        <v>56.03802837397788</v>
+        <v>56.03802837397777</v>
       </c>
       <c r="O40" t="n">
-        <v>56.03802837397788</v>
+        <v>56.03802837397777</v>
       </c>
       <c r="P40" t="n">
-        <v>56.03802837397788</v>
+        <v>56.03802837397777</v>
       </c>
       <c r="Q40" t="n">
-        <v>56.03802837397788</v>
+        <v>56.03802837397777</v>
       </c>
       <c r="R40" t="n">
-        <v>56.03802837397788</v>
+        <v>56.03802837397777</v>
       </c>
       <c r="S40" t="n">
-        <v>56.03802837397788</v>
+        <v>56.03802837397777</v>
       </c>
       <c r="T40" t="n">
-        <v>56.03802837397788</v>
+        <v>56.03802837397777</v>
       </c>
       <c r="U40" t="n">
-        <v>39.27289296922554</v>
+        <v>39.27289296922548</v>
       </c>
       <c r="V40" t="n">
-        <v>39.27289296922554</v>
+        <v>39.27289296922548</v>
       </c>
       <c r="W40" t="n">
         <v>20.83690038858565</v>
@@ -7409,31 +7409,31 @@
         <v>28.06539879618224</v>
       </c>
       <c r="J41" t="n">
-        <v>190.6484249575439</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="K41" t="n">
-        <v>297.1828477022538</v>
+        <v>259.999709850894</v>
       </c>
       <c r="L41" t="n">
-        <v>582.4960434082742</v>
+        <v>545.3129055569145</v>
       </c>
       <c r="M41" t="n">
-        <v>663.3471670216196</v>
+        <v>864.7660665372439</v>
       </c>
       <c r="N41" t="n">
-        <v>977.2661476922658</v>
+        <v>940.0830098409061</v>
       </c>
       <c r="O41" t="n">
-        <v>1011.476442769048</v>
+        <v>1212.895342284673</v>
       </c>
       <c r="P41" t="n">
-        <v>1235.128602885512</v>
+        <v>1212.895342284673</v>
       </c>
       <c r="Q41" t="n">
-        <v>1384.909393661128</v>
+        <v>1362.676133060289</v>
       </c>
       <c r="R41" t="n">
-        <v>1384.909393661128</v>
+        <v>1371.550579303025</v>
       </c>
       <c r="S41" t="n">
         <v>1384.909393661128</v>
@@ -7464,19 +7464,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>338.740223806634</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="C42" t="n">
-        <v>338.740223806634</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="D42" t="n">
-        <v>338.740223806634</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="E42" t="n">
-        <v>338.740223806634</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="F42" t="n">
-        <v>178.3125075238781</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="G42" t="n">
         <v>28.06539879618224</v>
@@ -7509,31 +7509,31 @@
         <v>785.225947669266</v>
       </c>
       <c r="Q42" t="n">
-        <v>778.2828270041922</v>
+        <v>785.225947669266</v>
       </c>
       <c r="R42" t="n">
-        <v>778.2828270041922</v>
+        <v>649.1432608233422</v>
       </c>
       <c r="S42" t="n">
-        <v>778.2828270041922</v>
+        <v>455.6165867222865</v>
       </c>
       <c r="T42" t="n">
-        <v>778.2828270041922</v>
+        <v>455.6165867222865</v>
       </c>
       <c r="U42" t="n">
-        <v>538.6585121770723</v>
+        <v>215.9922718951666</v>
       </c>
       <c r="V42" t="n">
-        <v>538.6585121770723</v>
+        <v>215.9922718951666</v>
       </c>
       <c r="W42" t="n">
-        <v>512.7065681159995</v>
+        <v>190.0403278340938</v>
       </c>
       <c r="X42" t="n">
-        <v>338.740223806634</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="Y42" t="n">
-        <v>338.740223806634</v>
+        <v>28.06539879618224</v>
       </c>
     </row>
     <row r="43">
@@ -7549,46 +7549,46 @@
         <v>28.06539879618224</v>
       </c>
       <c r="D43" t="n">
-        <v>92.92066865790552</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="E43" t="n">
-        <v>92.92066865790552</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="F43" t="n">
-        <v>92.92066865790552</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="G43" t="n">
-        <v>92.92066865790552</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="H43" t="n">
-        <v>92.92066865790552</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="I43" t="n">
-        <v>92.92066865790552</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="J43" t="n">
-        <v>92.92066865790552</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="K43" t="n">
-        <v>92.92066865790552</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="L43" t="n">
-        <v>92.92066865790552</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="M43" t="n">
-        <v>92.92066865790552</v>
+        <v>130.1258067652161</v>
       </c>
       <c r="N43" t="n">
-        <v>92.92066865790552</v>
+        <v>130.1258067652161</v>
       </c>
       <c r="O43" t="n">
-        <v>92.92066865790552</v>
+        <v>130.1258067652161</v>
       </c>
       <c r="P43" t="n">
-        <v>92.92066865790552</v>
+        <v>130.1258067652161</v>
       </c>
       <c r="Q43" t="n">
-        <v>92.92066865790552</v>
+        <v>130.1258067652161</v>
       </c>
       <c r="R43" t="n">
         <v>130.1258067652161</v>
@@ -7649,22 +7649,22 @@
         <v>190.648424957544</v>
       </c>
       <c r="K44" t="n">
-        <v>241.5692496355961</v>
+        <v>190.648424957544</v>
       </c>
       <c r="L44" t="n">
-        <v>526.8824453416166</v>
+        <v>453.0110760007699</v>
       </c>
       <c r="M44" t="n">
-        <v>846.3356063219461</v>
+        <v>772.4642369810994</v>
       </c>
       <c r="N44" t="n">
-        <v>921.6525496256083</v>
+        <v>847.7811802847616</v>
       </c>
       <c r="O44" t="n">
-        <v>1194.464882069375</v>
+        <v>1120.593512728528</v>
       </c>
       <c r="P44" t="n">
-        <v>1194.464882069375</v>
+        <v>1344.245672844991</v>
       </c>
       <c r="Q44" t="n">
         <v>1344.245672844991</v>
@@ -7701,13 +7701,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>362.408718913736</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="C45" t="n">
-        <v>362.408718913736</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="D45" t="n">
-        <v>201.6286026747678</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="E45" t="n">
         <v>28.06539879618224</v>
@@ -7752,25 +7752,25 @@
         <v>785.2259476692661</v>
       </c>
       <c r="S45" t="n">
-        <v>785.2259476692661</v>
+        <v>591.6992735682104</v>
       </c>
       <c r="T45" t="n">
-        <v>631.8072881834447</v>
+        <v>374.5567914602241</v>
       </c>
       <c r="U45" t="n">
-        <v>631.8072881834447</v>
+        <v>297.0970609536211</v>
       </c>
       <c r="V45" t="n">
-        <v>631.8072881834447</v>
+        <v>54.01734285725511</v>
       </c>
       <c r="W45" t="n">
-        <v>362.408718913736</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="X45" t="n">
-        <v>362.408718913736</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="Y45" t="n">
-        <v>362.408718913736</v>
+        <v>28.06539879618224</v>
       </c>
     </row>
     <row r="46">
@@ -7798,28 +7798,28 @@
         <v>28.06539879618224</v>
       </c>
       <c r="H46" t="n">
-        <v>102.5010377446798</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="I46" t="n">
-        <v>102.5010377446798</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="J46" t="n">
-        <v>102.5010377446798</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="K46" t="n">
-        <v>102.5010377446798</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="L46" t="n">
-        <v>102.5010377446798</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="M46" t="n">
-        <v>102.5010377446798</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="N46" t="n">
-        <v>130.1258067652161</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="O46" t="n">
-        <v>130.1258067652161</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="P46" t="n">
         <v>130.1258067652161</v>
@@ -8535,19 +8535,19 @@
         <v>171.373473584151</v>
       </c>
       <c r="L9" t="n">
-        <v>169.2041989925474</v>
+        <v>172.5532127625713</v>
       </c>
       <c r="M9" t="n">
         <v>176.9203908159872</v>
       </c>
       <c r="N9" t="n">
-        <v>163.7537581727915</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O9" t="n">
         <v>177.484287653347</v>
       </c>
       <c r="P9" t="n">
-        <v>163.4487770454829</v>
+        <v>163.6166327065838</v>
       </c>
       <c r="Q9" t="n">
         <v>136.1300824528302</v>
@@ -8778,7 +8778,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N12" t="n">
-        <v>292.1338058733769</v>
+        <v>292.1338058733768</v>
       </c>
       <c r="O12" t="n">
         <v>255.2227828913207</v>
@@ -9015,7 +9015,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N15" t="n">
-        <v>292.1338058733769</v>
+        <v>292.1338058733768</v>
       </c>
       <c r="O15" t="n">
         <v>255.2227828913207</v>
@@ -9252,7 +9252,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N18" t="n">
-        <v>292.1338058733769</v>
+        <v>292.1338058733768</v>
       </c>
       <c r="O18" t="n">
         <v>255.2227828913207</v>
@@ -9489,7 +9489,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N21" t="n">
-        <v>292.1338058733767</v>
+        <v>292.1338058733768</v>
       </c>
       <c r="O21" t="n">
         <v>255.2227828913207</v>
@@ -9717,7 +9717,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>171.373473584151</v>
+        <v>171.3734735841506</v>
       </c>
       <c r="L24" t="n">
         <v>240.3045437566416</v>
@@ -9726,7 +9726,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N24" t="n">
-        <v>292.1338058733769</v>
+        <v>292.1338058733767</v>
       </c>
       <c r="O24" t="n">
         <v>255.2227828913207</v>
@@ -23261,22 +23261,22 @@
         <v>172.0637335316378</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>159.6303957926862</v>
       </c>
       <c r="E11" t="n">
-        <v>4.851103135857812</v>
+        <v>193.3371482120951</v>
       </c>
       <c r="F11" t="n">
-        <v>36.57144071423514</v>
+        <v>225.0574857904724</v>
       </c>
       <c r="G11" t="n">
-        <v>240.696471099777</v>
+        <v>240.6964710997769</v>
       </c>
       <c r="H11" t="n">
-        <v>168.880269579988</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>62.87039510700844</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,28 +23303,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>16.74367530294981</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>33.70605204941086</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>72.00878260204226</v>
       </c>
       <c r="V11" t="n">
-        <v>142.738019759611</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>159.7546999762259</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>181.6409504451651</v>
       </c>
       <c r="Y11" t="n">
-        <v>204.1438035689089</v>
+        <v>54.48485658288232</v>
       </c>
     </row>
     <row r="12">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.459431452054986</v>
+        <v>7.459431452055043</v>
       </c>
       <c r="C14" t="n">
         <v>172.0637335316378</v>
@@ -23501,10 +23501,10 @@
         <v>159.6303957926863</v>
       </c>
       <c r="E14" t="n">
-        <v>4.851103135857812</v>
+        <v>193.3371482120952</v>
       </c>
       <c r="F14" t="n">
-        <v>108.4156205174597</v>
+        <v>150.2694215997884</v>
       </c>
       <c r="G14" t="n">
         <v>240.696471099777</v>
@@ -23513,7 +23513,7 @@
         <v>168.880269579988</v>
       </c>
       <c r="I14" t="n">
-        <v>62.87039510700848</v>
+        <v>62.8703951070085</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,28 +23540,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>16.7436753029498</v>
+        <v>16.74367530294981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>44.32438889692373</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>72.00878260204232</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>142.738019759611</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>159.7546999762259</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>181.6409504451651</v>
       </c>
       <c r="Y14" t="n">
-        <v>15.65775849267155</v>
+        <v>204.1438035689089</v>
       </c>
     </row>
     <row r="15">
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-6.071703758979893e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>828306.7457407995</v>
+        <v>828306.7457407996</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>828306.7457407996</v>
+        <v>828306.7457407993</v>
       </c>
     </row>
     <row r="7">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>595304.0967441105</v>
+      </c>
+      <c r="C2" t="n">
         <v>595304.0967441106</v>
       </c>
-      <c r="C2" t="n">
-        <v>595304.0967441105</v>
-      </c>
       <c r="D2" t="n">
-        <v>595664.9538218025</v>
+        <v>595664.9538218026</v>
       </c>
       <c r="E2" t="n">
-        <v>512812.8815499775</v>
+        <v>512812.8815499777</v>
       </c>
       <c r="F2" t="n">
-        <v>512812.8815499776</v>
+        <v>512812.8815499777</v>
       </c>
       <c r="G2" t="n">
+        <v>596510.0204795117</v>
+      </c>
+      <c r="H2" t="n">
+        <v>596510.0204795122</v>
+      </c>
+      <c r="I2" t="n">
         <v>596510.0204795121</v>
       </c>
-      <c r="H2" t="n">
-        <v>596510.0204795119</v>
-      </c>
-      <c r="I2" t="n">
-        <v>596510.0204795117</v>
-      </c>
       <c r="J2" t="n">
-        <v>596510.0204795109</v>
+        <v>596510.0204795112</v>
       </c>
       <c r="K2" t="n">
-        <v>596510.0204795115</v>
+        <v>596510.0204795116</v>
       </c>
       <c r="L2" t="n">
-        <v>596510.0204795115</v>
+        <v>596510.0204795111</v>
       </c>
       <c r="M2" t="n">
-        <v>596510.0204795117</v>
+        <v>596510.0204795118</v>
       </c>
       <c r="N2" t="n">
         <v>596510.0204795118</v>
       </c>
       <c r="O2" t="n">
-        <v>596510.020479511</v>
+        <v>596510.0204795114</v>
       </c>
       <c r="P2" t="n">
-        <v>596510.0204795117</v>
+        <v>596510.0204795116</v>
       </c>
     </row>
     <row r="3">
@@ -26372,28 +26372,28 @@
         <v>1092.445151390297</v>
       </c>
       <c r="E3" t="n">
-        <v>279010.14326738</v>
+        <v>279010.1432673799</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>95448.13167658164</v>
+        <v>95448.13167658173</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>143490.4163710103</v>
+        <v>143490.4163710104</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>96176.03924395812</v>
+        <v>96176.03924395819</v>
       </c>
       <c r="M3" t="n">
         <v>46128.92849852187</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72249.07655134116</v>
+        <v>72249.0765513411</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26433,13 +26433,13 @@
         <v>349424.6097629184</v>
       </c>
       <c r="H4" t="n">
-        <v>349424.6097629184</v>
+        <v>349424.6097629185</v>
       </c>
       <c r="I4" t="n">
         <v>349424.6097629184</v>
       </c>
       <c r="J4" t="n">
-        <v>350153.975640944</v>
+        <v>350153.9756409439</v>
       </c>
       <c r="K4" t="n">
         <v>350153.9756409439</v>
@@ -26457,7 +26457,7 @@
         <v>349716.3329031964</v>
       </c>
       <c r="P4" t="n">
-        <v>349716.3329031964</v>
+        <v>349716.3329031963</v>
       </c>
     </row>
     <row r="5">
@@ -26479,7 +26479,7 @@
         <v>28641.35152034391</v>
       </c>
       <c r="F5" t="n">
-        <v>28641.35152034391</v>
+        <v>28641.3515203439</v>
       </c>
       <c r="G5" t="n">
         <v>38671.63774774209</v>
@@ -26488,22 +26488,22 @@
         <v>38671.63774774209</v>
       </c>
       <c r="I5" t="n">
-        <v>38671.63774774209</v>
+        <v>38671.63774774208</v>
       </c>
       <c r="J5" t="n">
-        <v>47448.92101020609</v>
+        <v>47448.92101020608</v>
       </c>
       <c r="K5" t="n">
         <v>47448.92101020608</v>
       </c>
       <c r="L5" t="n">
-        <v>47311.58842539591</v>
+        <v>47311.58842539589</v>
       </c>
       <c r="M5" t="n">
-        <v>40912.97865860085</v>
+        <v>40912.97865860086</v>
       </c>
       <c r="N5" t="n">
-        <v>40912.97865860085</v>
+        <v>40912.97865860086</v>
       </c>
       <c r="O5" t="n">
         <v>43796.55431105828</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>168461.8830317553</v>
+        <v>168457.41664755</v>
       </c>
       <c r="C6" t="n">
-        <v>168461.8830317552</v>
+        <v>168457.4166475501</v>
       </c>
       <c r="D6" t="n">
-        <v>167795.5940436046</v>
+        <v>167792.4641670947</v>
       </c>
       <c r="E6" t="n">
-        <v>-73648.15669586067</v>
+        <v>-73958.14609930315</v>
       </c>
       <c r="F6" t="n">
-        <v>205361.9865715195</v>
+        <v>205051.9971680769</v>
       </c>
       <c r="G6" t="n">
-        <v>112965.6412922699</v>
+        <v>112965.6412922694</v>
       </c>
       <c r="H6" t="n">
-        <v>208413.7729688514</v>
+        <v>208413.7729688516</v>
       </c>
       <c r="I6" t="n">
-        <v>208413.7729688512</v>
+        <v>208413.7729688515</v>
       </c>
       <c r="J6" t="n">
-        <v>55416.70745735052</v>
+        <v>55416.70745735089</v>
       </c>
       <c r="K6" t="n">
-        <v>198907.1238283615</v>
+        <v>198907.1238283616</v>
       </c>
       <c r="L6" t="n">
-        <v>102884.6754766336</v>
+        <v>102884.6754766332</v>
       </c>
       <c r="M6" t="n">
-        <v>160138.809746654</v>
+        <v>160138.8097466541</v>
       </c>
       <c r="N6" t="n">
         <v>206267.738245176</v>
       </c>
       <c r="O6" t="n">
-        <v>130748.0567139152</v>
+        <v>130748.0567139156</v>
       </c>
       <c r="P6" t="n">
         <v>202997.133265257</v>
@@ -26698,16 +26698,16 @@
         <v>178.141763849541</v>
       </c>
       <c r="G2" t="n">
-        <v>297.451928445268</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="H2" t="n">
-        <v>297.4519284452681</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="I2" t="n">
-        <v>297.4519284452681</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="J2" t="n">
-        <v>213.488029352129</v>
+        <v>213.4880293521289</v>
       </c>
       <c r="K2" t="n">
         <v>213.488029352129</v>
@@ -26716,10 +26716,10 @@
         <v>214.3979138113496</v>
       </c>
       <c r="M2" t="n">
-        <v>272.0590744345018</v>
+        <v>272.0590744345019</v>
       </c>
       <c r="N2" t="n">
-        <v>272.0590744345018</v>
+        <v>272.0590744345019</v>
       </c>
       <c r="O2" t="n">
         <v>241.0121589565495</v>
@@ -26796,34 +26796,34 @@
         <v>3.516869431124803</v>
       </c>
       <c r="E4" t="n">
-        <v>188.4860450762374</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="F4" t="n">
-        <v>188.4860450762374</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="G4" t="n">
-        <v>188.4860450762374</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="H4" t="n">
         <v>188.4860450762373</v>
       </c>
       <c r="I4" t="n">
-        <v>188.4860450762374</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="J4" t="n">
         <v>448.9472999335582</v>
       </c>
       <c r="K4" t="n">
-        <v>448.947299933558</v>
+        <v>448.9472999335579</v>
       </c>
       <c r="L4" t="n">
-        <v>445.4304305024332</v>
+        <v>445.4304305024331</v>
       </c>
       <c r="M4" t="n">
-        <v>260.4612548573207</v>
+        <v>260.4612548573206</v>
       </c>
       <c r="N4" t="n">
-        <v>260.4612548573207</v>
+        <v>260.4612548573206</v>
       </c>
       <c r="O4" t="n">
         <v>350.8174849522781</v>
@@ -26920,16 +26920,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>119.3101645957271</v>
+        <v>119.3101645957272</v>
       </c>
       <c r="H2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>94.17786475640185</v>
+        <v>94.17786475640182</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>63.13094927844946</v>
+        <v>63.13094927844938</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>3.516869431124803</v>
       </c>
       <c r="E4" t="n">
-        <v>184.9691756451126</v>
+        <v>184.9691756451125</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>260.4612548573208</v>
+        <v>260.461254857321</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>90.35623009495737</v>
+        <v>90.35623009495743</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27157,16 +27157,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>119.3101645957271</v>
+        <v>119.3101645957272</v>
       </c>
       <c r="M2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>94.17786475640185</v>
+        <v>94.17786475640182</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>3.516869431124803</v>
       </c>
       <c r="M4" t="n">
-        <v>184.9691756451126</v>
+        <v>184.9691756451125</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27862,7 +27862,7 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F8" t="n">
-        <v>399.8223516122474</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27907,7 +27907,7 @@
         <v>224.246294399988</v>
       </c>
       <c r="U8" t="n">
-        <v>250.1830790232068</v>
+        <v>250.0054306354542</v>
       </c>
       <c r="V8" t="n">
         <v>320.879783609152</v>
@@ -27953,7 +27953,7 @@
         <v>114.855819447717</v>
       </c>
       <c r="J9" t="n">
-        <v>69.51804420162362</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27980,25 +27980,25 @@
         <v>148.2309527983001</v>
       </c>
       <c r="S9" t="n">
-        <v>195.63287444794</v>
+        <v>192.1160050168152</v>
       </c>
       <c r="T9" t="n">
-        <v>212.7504018215527</v>
+        <v>215.8480604164874</v>
       </c>
       <c r="U9" t="n">
-        <v>237.2423862021824</v>
+        <v>233.7255167710576</v>
       </c>
       <c r="V9" t="n">
-        <v>237.1320514842774</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W9" t="n">
-        <v>266.7045835770116</v>
+        <v>263.1877141458868</v>
       </c>
       <c r="X9" t="n">
-        <v>213.7960450083458</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y9" t="n">
-        <v>223.3842861340256</v>
+        <v>220.2866275390909</v>
       </c>
     </row>
     <row r="10">
@@ -28114,25 +28114,25 @@
         <v>178.141763849541</v>
       </c>
       <c r="K11" t="n">
-        <v>6.735077083103192</v>
+        <v>6.735077083103228</v>
       </c>
       <c r="L11" t="n">
-        <v>141.3030568549884</v>
+        <v>141.3030568549883</v>
       </c>
       <c r="M11" t="n">
         <v>106.8182434465955</v>
       </c>
       <c r="N11" t="n">
-        <v>3.437842942767745</v>
+        <v>112.4083245674876</v>
       </c>
       <c r="O11" t="n">
-        <v>153.9301914633259</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>15.10088611163695</v>
+        <v>15.10088611163698</v>
       </c>
       <c r="Q11" t="n">
-        <v>89.71843090037098</v>
+        <v>134.6781407389768</v>
       </c>
       <c r="R11" t="n">
         <v>178.141763849541</v>
@@ -28190,7 +28190,7 @@
         <v>107.364552236389</v>
       </c>
       <c r="J12" t="n">
-        <v>52.47830382393109</v>
+        <v>52.4783038239311</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28211,25 +28211,25 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.873689458423112</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>134.7218599774646</v>
       </c>
       <c r="S12" t="n">
-        <v>3.105362283807835</v>
+        <v>3.105362283807892</v>
       </c>
       <c r="T12" t="n">
-        <v>26.48501221066911</v>
+        <v>178.141763849541</v>
       </c>
       <c r="U12" t="n">
-        <v>178.141763849541</v>
+        <v>48.7420266026113</v>
       </c>
       <c r="V12" t="n">
         <v>178.141763849541</v>
       </c>
       <c r="W12" t="n">
-        <v>127.5835554420325</v>
+        <v>112.2002305085133</v>
       </c>
       <c r="X12" t="n">
         <v>178.141763849541</v>
@@ -28254,16 +28254,16 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E13" t="n">
-        <v>178.141763849541</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F13" t="n">
-        <v>138.9268822184467</v>
+        <v>167.9856882122977</v>
       </c>
       <c r="G13" t="n">
         <v>168.7008027322384</v>
       </c>
       <c r="H13" t="n">
-        <v>165.824644867158</v>
+        <v>178.141763849541</v>
       </c>
       <c r="I13" t="n">
         <v>178.141763849541</v>
@@ -28272,25 +28272,25 @@
         <v>120.241573402485</v>
       </c>
       <c r="K13" t="n">
-        <v>67.03321058462936</v>
+        <v>178.141763849541</v>
       </c>
       <c r="L13" t="n">
+        <v>32.15595010613788</v>
+      </c>
+      <c r="M13" t="n">
         <v>178.141763849541</v>
       </c>
-      <c r="M13" t="n">
-        <v>79.43745324849839</v>
-      </c>
       <c r="N13" t="n">
-        <v>16.52441230575092</v>
+        <v>16.52441230575094</v>
       </c>
       <c r="O13" t="n">
         <v>178.141763849541</v>
       </c>
       <c r="P13" t="n">
+        <v>58.48196179900675</v>
+      </c>
+      <c r="Q13" t="n">
         <v>178.141763849541</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>127.2193142604766</v>
       </c>
       <c r="R13" t="n">
         <v>178.141763849541</v>
@@ -28348,7 +28348,7 @@
         <v>178.141763849541</v>
       </c>
       <c r="J14" t="n">
-        <v>178.141763849541</v>
+        <v>76.78688000567908</v>
       </c>
       <c r="K14" t="n">
         <v>178.141763849541</v>
@@ -28357,16 +28357,16 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>83.97332109802755</v>
       </c>
       <c r="N14" t="n">
-        <v>112.4083245674876</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>48.35187653621906</v>
+        <v>178.141763849541</v>
       </c>
       <c r="Q14" t="n">
         <v>178.141763849541</v>
@@ -28406,7 +28406,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>178.141763849541</v>
       </c>
       <c r="D15" t="n">
         <v>159.1723150765785</v>
@@ -28415,7 +28415,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
-        <v>85.69272936773187</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
         <v>148.7446376404189</v>
@@ -28427,7 +28427,7 @@
         <v>107.364552236389</v>
       </c>
       <c r="J15" t="n">
-        <v>52.47830382393109</v>
+        <v>52.4783038239311</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28448,10 +28448,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.873689458423112</v>
+        <v>6.873689458423129</v>
       </c>
       <c r="R15" t="n">
-        <v>134.7218599774646</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>178.141763849541</v>
@@ -28460,10 +28460,10 @@
         <v>178.141763849541</v>
       </c>
       <c r="U15" t="n">
+        <v>48.7420266026113</v>
+      </c>
+      <c r="V15" t="n">
         <v>178.141763849541</v>
-      </c>
-      <c r="V15" t="n">
-        <v>52.16287583916488</v>
       </c>
       <c r="W15" t="n">
         <v>178.141763849541</v>
@@ -28472,7 +28472,7 @@
         <v>178.141763849541</v>
       </c>
       <c r="Y15" t="n">
-        <v>178.141763849541</v>
+        <v>65.01199946182192</v>
       </c>
     </row>
     <row r="16">
@@ -28488,7 +28488,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
-        <v>178.141763849541</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E16" t="n">
         <v>141.676141212225</v>
@@ -28497,7 +28497,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
-        <v>168.7008027322384</v>
+        <v>178.141763849541</v>
       </c>
       <c r="H16" t="n">
         <v>165.824644867158</v>
@@ -28509,7 +28509,7 @@
         <v>120.241573402485</v>
       </c>
       <c r="K16" t="n">
-        <v>67.03321058462936</v>
+        <v>67.03321058462939</v>
       </c>
       <c r="L16" t="n">
         <v>178.141763849541</v>
@@ -28518,13 +28518,13 @@
         <v>178.141763849541</v>
       </c>
       <c r="N16" t="n">
-        <v>131.2477561184898</v>
+        <v>16.52441230575094</v>
       </c>
       <c r="O16" t="n">
-        <v>37.48281412028787</v>
+        <v>175.7243104145545</v>
       </c>
       <c r="P16" t="n">
-        <v>58.48196179900674</v>
+        <v>58.48196179900675</v>
       </c>
       <c r="Q16" t="n">
         <v>178.141763849541</v>
@@ -28561,55 +28561,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>297.451928445268</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="C17" t="n">
-        <v>297.451928445268</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="D17" t="n">
-        <v>297.451928445268</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="E17" t="n">
-        <v>297.451928445268</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="F17" t="n">
-        <v>297.451928445268</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="G17" t="n">
-        <v>297.451928445268</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="H17" t="n">
-        <v>297.451928445268</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="I17" t="n">
-        <v>241.0121589565495</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="J17" t="n">
-        <v>76.78688000567907</v>
+        <v>76.78688000567908</v>
       </c>
       <c r="K17" t="n">
-        <v>195.2211221593406</v>
+        <v>195.2211221593405</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>106.8182434465955</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>26.13097691666118</v>
       </c>
       <c r="O17" t="n">
-        <v>153.9301914633259</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>15.10088611163695</v>
+        <v>15.10088611163698</v>
       </c>
       <c r="Q17" t="n">
-        <v>89.71843090037098</v>
+        <v>278.2044759766084</v>
       </c>
       <c r="R17" t="n">
-        <v>252.4951777178713</v>
+        <v>194.8854391524908</v>
       </c>
       <c r="S17" t="n">
         <v>227.518407079678</v>
@@ -28618,19 +28618,19 @@
         <v>222.4661527464647</v>
       </c>
       <c r="U17" t="n">
-        <v>250.1505464515833</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="V17" t="n">
-        <v>297.451928445268</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="W17" t="n">
-        <v>297.451928445268</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="X17" t="n">
-        <v>297.451928445268</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="Y17" t="n">
-        <v>297.451928445268</v>
+        <v>297.4519284452682</v>
       </c>
     </row>
     <row r="18">
@@ -28643,13 +28643,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
-        <v>4.841169784778373</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
         <v>158.8234391199283</v>
@@ -28664,7 +28664,7 @@
         <v>107.364552236389</v>
       </c>
       <c r="J18" t="n">
-        <v>52.47830382393109</v>
+        <v>52.4783038239311</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28685,28 +28685,28 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.873689458423112</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>134.7218599774646</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>191.5914073600452</v>
+        <v>167.1684482927831</v>
       </c>
       <c r="T18" t="n">
-        <v>214.9710572869065</v>
+        <v>26.48501221066917</v>
       </c>
       <c r="U18" t="n">
         <v>237.2280716788486</v>
       </c>
       <c r="V18" t="n">
-        <v>240.6489209154022</v>
+        <v>52.16287583916494</v>
       </c>
       <c r="W18" t="n">
-        <v>78.21853850077423</v>
+        <v>78.21853850077429</v>
       </c>
       <c r="X18" t="n">
-        <v>28.82686936323324</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
         <v>223.3842861340256</v>
@@ -28740,28 +28740,28 @@
         <v>165.824644867158</v>
       </c>
       <c r="I19" t="n">
-        <v>164.8538042427313</v>
+        <v>164.8538042427314</v>
       </c>
       <c r="J19" t="n">
         <v>120.241573402485</v>
       </c>
       <c r="K19" t="n">
-        <v>67.03321058462936</v>
+        <v>67.03321058462939</v>
       </c>
       <c r="L19" t="n">
-        <v>32.15595010613786</v>
+        <v>32.15595010613788</v>
       </c>
       <c r="M19" t="n">
-        <v>25.22122397250153</v>
+        <v>25.22122397250156</v>
       </c>
       <c r="N19" t="n">
-        <v>16.52441230575092</v>
+        <v>16.52441230575094</v>
       </c>
       <c r="O19" t="n">
-        <v>37.48281412028787</v>
+        <v>37.48281412028789</v>
       </c>
       <c r="P19" t="n">
-        <v>58.48196179900674</v>
+        <v>58.48196179900675</v>
       </c>
       <c r="Q19" t="n">
         <v>127.2193142604766</v>
@@ -28798,37 +28798,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>297.4519284452681</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="C20" t="n">
-        <v>297.4519284452681</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="D20" t="n">
-        <v>297.4519284452681</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="E20" t="n">
-        <v>297.4519284452681</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="F20" t="n">
-        <v>297.4519284452681</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="G20" t="n">
-        <v>297.4519284452681</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="H20" t="n">
-        <v>297.4519284452681</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="I20" t="n">
         <v>241.0121589565495</v>
       </c>
       <c r="J20" t="n">
-        <v>166.1106925464157</v>
+        <v>76.78688000567908</v>
       </c>
       <c r="K20" t="n">
-        <v>6.735077083103192</v>
+        <v>6.735077083103228</v>
       </c>
       <c r="L20" t="n">
-        <v>141.3030568549883</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -28837,13 +28837,13 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>153.9301914633258</v>
+        <v>153.9301914633259</v>
       </c>
       <c r="P20" t="n">
-        <v>15.10088611163695</v>
+        <v>203.5869311878743</v>
       </c>
       <c r="Q20" t="n">
-        <v>89.71843090037098</v>
+        <v>254.1464129123471</v>
       </c>
       <c r="R20" t="n">
         <v>194.8854391524908</v>
@@ -28852,22 +28852,22 @@
         <v>227.518407079678</v>
       </c>
       <c r="T20" t="n">
-        <v>297.4519284452681</v>
+        <v>222.4661527464647</v>
       </c>
       <c r="U20" t="n">
-        <v>297.4519284452681</v>
+        <v>250.1505464515833</v>
       </c>
       <c r="V20" t="n">
-        <v>297.4519284452681</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="W20" t="n">
-        <v>297.4519284452681</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="X20" t="n">
-        <v>297.4519284452681</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="Y20" t="n">
-        <v>297.4519284452681</v>
+        <v>297.4519284452682</v>
       </c>
     </row>
     <row r="21">
@@ -28877,7 +28877,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>152.3275353304037</v>
       </c>
       <c r="C21" t="n">
         <v>187.5181515243659</v>
@@ -28889,10 +28889,10 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>129.8140175786259</v>
+        <v>148.7446376404189</v>
       </c>
       <c r="H21" t="n">
         <v>125.7358448975026</v>
@@ -28901,7 +28901,7 @@
         <v>107.364552236389</v>
       </c>
       <c r="J21" t="n">
-        <v>52.47830382393109</v>
+        <v>52.4783038239311</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28922,28 +28922,28 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.873689458423112</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>134.7218599774646</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>3.10536228380789</v>
+        <v>3.105362283807893</v>
       </c>
       <c r="T21" t="n">
-        <v>214.9710572869065</v>
+        <v>26.48501221066917</v>
       </c>
       <c r="U21" t="n">
         <v>237.2280716788486</v>
       </c>
       <c r="V21" t="n">
-        <v>52.16287583916494</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>217.3129144394706</v>
+        <v>28.8268693632333</v>
       </c>
       <c r="Y21" t="n">
         <v>223.3842861340256</v>
@@ -28977,28 +28977,28 @@
         <v>165.824644867158</v>
       </c>
       <c r="I22" t="n">
-        <v>164.8538042427313</v>
+        <v>164.8538042427314</v>
       </c>
       <c r="J22" t="n">
         <v>120.241573402485</v>
       </c>
       <c r="K22" t="n">
-        <v>67.03321058462936</v>
+        <v>67.03321058462939</v>
       </c>
       <c r="L22" t="n">
-        <v>32.15595010613786</v>
+        <v>32.15595010613788</v>
       </c>
       <c r="M22" t="n">
-        <v>25.22122397250153</v>
+        <v>25.22122397250156</v>
       </c>
       <c r="N22" t="n">
-        <v>16.52441230575092</v>
+        <v>16.52441230575094</v>
       </c>
       <c r="O22" t="n">
-        <v>37.48281412028787</v>
+        <v>37.48281412028789</v>
       </c>
       <c r="P22" t="n">
-        <v>58.48196179900674</v>
+        <v>58.48196179900675</v>
       </c>
       <c r="Q22" t="n">
         <v>127.2193142604766</v>
@@ -29035,76 +29035,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>297.4519284452681</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="C23" t="n">
-        <v>297.4519284452681</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="D23" t="n">
-        <v>297.4519284452681</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="E23" t="n">
-        <v>297.4519284452681</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="F23" t="n">
-        <v>297.4519284452681</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="G23" t="n">
-        <v>297.4519284452681</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="H23" t="n">
-        <v>297.4519284452681</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="I23" t="n">
-        <v>297.4519284452681</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="J23" t="n">
-        <v>76.78688000567907</v>
+        <v>90.51604985541474</v>
       </c>
       <c r="K23" t="n">
-        <v>6.735077083103192</v>
+        <v>6.735077083103228</v>
       </c>
       <c r="L23" t="n">
-        <v>141.3030568549884</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>112.4083245674877</v>
+        <v>112.4083245674875</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>203.5869311878743</v>
+        <v>203.5869311878741</v>
       </c>
       <c r="Q23" t="n">
-        <v>89.71843090037098</v>
+        <v>89.718430900371</v>
       </c>
       <c r="R23" t="n">
-        <v>203.0924617165981</v>
+        <v>194.8854391524908</v>
       </c>
       <c r="S23" t="n">
-        <v>227.518407079678</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="T23" t="n">
-        <v>222.4661527464647</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="U23" t="n">
-        <v>250.1505464515833</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="V23" t="n">
-        <v>297.4519284452681</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="W23" t="n">
-        <v>297.4519284452681</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="X23" t="n">
-        <v>297.4519284452681</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="Y23" t="n">
-        <v>297.4519284452681</v>
+        <v>297.4519284452682</v>
       </c>
     </row>
     <row r="24">
@@ -29117,10 +29117,10 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>129.1949999834044</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
         <v>171.8275718397997</v>
@@ -29129,7 +29129,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>148.7446376404189</v>
       </c>
       <c r="H24" t="n">
         <v>125.7358448975026</v>
@@ -29138,7 +29138,7 @@
         <v>107.364552236389</v>
       </c>
       <c r="J24" t="n">
-        <v>52.47830382393109</v>
+        <v>52.4783038239311</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29159,19 +29159,19 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.873689458423112</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>134.7218599774646</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>3.105362283807804</v>
+        <v>3.105362283808006</v>
       </c>
       <c r="T24" t="n">
         <v>214.9710572869065</v>
       </c>
       <c r="U24" t="n">
-        <v>237.2280716788486</v>
+        <v>48.74202660261142</v>
       </c>
       <c r="V24" t="n">
         <v>240.6489209154022</v>
@@ -29180,7 +29180,7 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>217.3129144394706</v>
+        <v>181.1544046936372</v>
       </c>
       <c r="Y24" t="n">
         <v>223.3842861340256</v>
@@ -29214,28 +29214,28 @@
         <v>165.824644867158</v>
       </c>
       <c r="I25" t="n">
-        <v>164.8538042427313</v>
+        <v>164.8538042427314</v>
       </c>
       <c r="J25" t="n">
         <v>120.241573402485</v>
       </c>
       <c r="K25" t="n">
-        <v>67.03321058462936</v>
+        <v>67.03321058462939</v>
       </c>
       <c r="L25" t="n">
-        <v>32.15595010613786</v>
+        <v>32.15595010613788</v>
       </c>
       <c r="M25" t="n">
-        <v>25.22122397250153</v>
+        <v>25.22122397250156</v>
       </c>
       <c r="N25" t="n">
-        <v>16.52441230575092</v>
+        <v>16.52441230575094</v>
       </c>
       <c r="O25" t="n">
-        <v>37.48281412028787</v>
+        <v>37.48281412028789</v>
       </c>
       <c r="P25" t="n">
-        <v>58.48196179900674</v>
+        <v>58.48196179900675</v>
       </c>
       <c r="Q25" t="n">
         <v>127.2193142604766</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>213.488029352129</v>
+        <v>213.4880293521289</v>
       </c>
       <c r="C26" t="n">
-        <v>213.488029352129</v>
+        <v>213.4880293521289</v>
       </c>
       <c r="D26" t="n">
-        <v>213.488029352129</v>
+        <v>213.4880293521289</v>
       </c>
       <c r="E26" t="n">
-        <v>213.488029352129</v>
+        <v>213.4880293521289</v>
       </c>
       <c r="F26" t="n">
-        <v>213.488029352129</v>
+        <v>213.4880293521289</v>
       </c>
       <c r="G26" t="n">
-        <v>213.488029352129</v>
+        <v>213.4880293521289</v>
       </c>
       <c r="H26" t="n">
-        <v>213.488029352129</v>
+        <v>213.4880293521289</v>
       </c>
       <c r="I26" t="n">
-        <v>213.488029352129</v>
+        <v>213.4880293521289</v>
       </c>
       <c r="J26" t="n">
-        <v>213.488029352129</v>
+        <v>213.4880293521289</v>
       </c>
       <c r="K26" t="n">
-        <v>213.488029352129</v>
+        <v>213.4880293521289</v>
       </c>
       <c r="L26" t="n">
-        <v>213.488029352129</v>
+        <v>213.4880293521289</v>
       </c>
       <c r="M26" t="n">
-        <v>213.488029352129</v>
+        <v>213.4880293521289</v>
       </c>
       <c r="N26" t="n">
-        <v>213.488029352129</v>
+        <v>213.4880293521289</v>
       </c>
       <c r="O26" t="n">
-        <v>213.488029352129</v>
+        <v>213.4880293521289</v>
       </c>
       <c r="P26" t="n">
-        <v>213.4880293521301</v>
+        <v>213.4880293521289</v>
       </c>
       <c r="Q26" t="n">
-        <v>213.488029352129</v>
+        <v>213.4880293521289</v>
       </c>
       <c r="R26" t="n">
-        <v>213.488029352129</v>
+        <v>213.4880293521289</v>
       </c>
       <c r="S26" t="n">
-        <v>213.488029352129</v>
+        <v>213.4880293521289</v>
       </c>
       <c r="T26" t="n">
-        <v>213.488029352129</v>
+        <v>213.4880293521289</v>
       </c>
       <c r="U26" t="n">
-        <v>213.488029352129</v>
+        <v>213.4880293521289</v>
       </c>
       <c r="V26" t="n">
-        <v>213.488029352129</v>
+        <v>213.4880293521289</v>
       </c>
       <c r="W26" t="n">
-        <v>213.488029352129</v>
+        <v>213.4880293521289</v>
       </c>
       <c r="X26" t="n">
-        <v>213.488029352129</v>
+        <v>213.4880293521289</v>
       </c>
       <c r="Y26" t="n">
-        <v>213.488029352129</v>
+        <v>213.4880293521289</v>
       </c>
     </row>
     <row r="27">
@@ -29357,10 +29357,10 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
         <v>158.8234391199283</v>
@@ -29375,7 +29375,7 @@
         <v>107.364552236389</v>
       </c>
       <c r="J27" t="n">
-        <v>52.47830382393109</v>
+        <v>52.4783038239311</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29402,25 +29402,25 @@
         <v>134.7218599774646</v>
       </c>
       <c r="S27" t="n">
-        <v>191.5914073600452</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>213.488029352129</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>134.582349613598</v>
+        <v>213.4880293521289</v>
       </c>
       <c r="V27" t="n">
-        <v>213.488029352129</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>213.4880293521289</v>
       </c>
       <c r="X27" t="n">
-        <v>213.488029352129</v>
+        <v>213.4880293521289</v>
       </c>
       <c r="Y27" t="n">
-        <v>213.488029352129</v>
+        <v>208.6618994093939</v>
       </c>
     </row>
     <row r="28">
@@ -29451,55 +29451,55 @@
         <v>165.824644867158</v>
       </c>
       <c r="I28" t="n">
-        <v>164.8538042427313</v>
+        <v>164.8538042427314</v>
       </c>
       <c r="J28" t="n">
-        <v>120.241573402485</v>
+        <v>187.7274172894444</v>
       </c>
       <c r="K28" t="n">
-        <v>67.03321058462936</v>
+        <v>67.03321058462939</v>
       </c>
       <c r="L28" t="n">
-        <v>213.488029352129</v>
+        <v>32.15595010613788</v>
       </c>
       <c r="M28" t="n">
-        <v>25.22122397250153</v>
+        <v>25.22122397250156</v>
       </c>
       <c r="N28" t="n">
-        <v>16.52441230575092</v>
+        <v>16.52441230575094</v>
       </c>
       <c r="O28" t="n">
-        <v>88.69946429309957</v>
+        <v>37.48281412028789</v>
       </c>
       <c r="P28" t="n">
-        <v>58.48196179900674</v>
+        <v>213.4880293521289</v>
       </c>
       <c r="Q28" t="n">
         <v>127.2193142604766</v>
       </c>
       <c r="R28" t="n">
-        <v>203.4312113734075</v>
+        <v>213.4880293521289</v>
       </c>
       <c r="S28" t="n">
-        <v>213.488029352129</v>
+        <v>213.4880293521289</v>
       </c>
       <c r="T28" t="n">
-        <v>213.488029352129</v>
+        <v>213.4880293521289</v>
       </c>
       <c r="U28" t="n">
-        <v>213.488029352129</v>
+        <v>213.4880293521289</v>
       </c>
       <c r="V28" t="n">
-        <v>213.488029352129</v>
+        <v>213.4880293521289</v>
       </c>
       <c r="W28" t="n">
-        <v>213.488029352129</v>
+        <v>213.4880293521289</v>
       </c>
       <c r="X28" t="n">
-        <v>213.488029352129</v>
+        <v>213.4880293521289</v>
       </c>
       <c r="Y28" t="n">
-        <v>213.488029352129</v>
+        <v>213.4880293521289</v>
       </c>
     </row>
     <row r="29">
@@ -29594,7 +29594,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
         <v>171.8275718397997</v>
@@ -29606,13 +29606,13 @@
         <v>148.7446376404189</v>
       </c>
       <c r="H30" t="n">
-        <v>88.49062267130066</v>
+        <v>125.7358448975026</v>
       </c>
       <c r="I30" t="n">
         <v>107.364552236389</v>
       </c>
       <c r="J30" t="n">
-        <v>52.47830382393109</v>
+        <v>52.4783038239311</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29642,10 +29642,10 @@
         <v>191.5914073600452</v>
       </c>
       <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
         <v>213.488029352129</v>
-      </c>
-      <c r="U30" t="n">
-        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -29657,7 +29657,7 @@
         <v>213.488029352129</v>
       </c>
       <c r="Y30" t="n">
-        <v>213.488029352129</v>
+        <v>17.0704920493485</v>
       </c>
     </row>
     <row r="31">
@@ -29673,7 +29673,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D31" t="n">
-        <v>213.488029352129</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E31" t="n">
         <v>141.676141212225</v>
@@ -29688,28 +29688,28 @@
         <v>165.824644867158</v>
       </c>
       <c r="I31" t="n">
-        <v>164.8538042427313</v>
+        <v>164.8538042427314</v>
       </c>
       <c r="J31" t="n">
         <v>120.241573402485</v>
       </c>
       <c r="K31" t="n">
-        <v>67.03321058462936</v>
+        <v>67.03321058462939</v>
       </c>
       <c r="L31" t="n">
-        <v>32.15595010613786</v>
+        <v>32.15595010613788</v>
       </c>
       <c r="M31" t="n">
-        <v>25.22122397250153</v>
+        <v>25.22122397250156</v>
       </c>
       <c r="N31" t="n">
-        <v>180.7677626231354</v>
+        <v>213.488029352129</v>
       </c>
       <c r="O31" t="n">
-        <v>37.48281412028787</v>
+        <v>73.06792649271244</v>
       </c>
       <c r="P31" t="n">
-        <v>58.48196179900674</v>
+        <v>58.48196179900675</v>
       </c>
       <c r="Q31" t="n">
         <v>127.2193142604766</v>
@@ -29776,13 +29776,13 @@
         <v>214.3979138113496</v>
       </c>
       <c r="L32" t="n">
-        <v>214.3979138113496</v>
+        <v>192.2835716884557</v>
       </c>
       <c r="M32" t="n">
         <v>214.3979138113496</v>
       </c>
       <c r="N32" t="n">
-        <v>192.2835716884562</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="O32" t="n">
         <v>214.3979138113496</v>
@@ -29825,10 +29825,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
         <v>159.1723150765785</v>
@@ -29840,7 +29840,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>98.55829461143801</v>
+        <v>148.7446376404189</v>
       </c>
       <c r="H33" t="n">
         <v>125.7358448975026</v>
@@ -29873,25 +29873,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>134.7218599774646</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>191.5914073600452</v>
       </c>
       <c r="T33" t="n">
-        <v>214.3979138113496</v>
+        <v>149.0626986491513</v>
       </c>
       <c r="U33" t="n">
         <v>214.3979138113496</v>
       </c>
       <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
         <v>214.3979138113496</v>
-      </c>
-      <c r="W33" t="n">
-        <v>214.3979138113496</v>
-      </c>
-      <c r="X33" t="n">
-        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>214.3979138113496</v>
@@ -29907,10 +29907,10 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C34" t="n">
-        <v>214.3979138113496</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D34" t="n">
-        <v>214.3979138113496</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E34" t="n">
         <v>141.676141212225</v>
@@ -29931,7 +29931,7 @@
         <v>120.241573402485</v>
       </c>
       <c r="K34" t="n">
-        <v>164.9607295701836</v>
+        <v>67.03321058462936</v>
       </c>
       <c r="L34" t="n">
         <v>32.15595010613786</v>
@@ -29940,19 +29940,19 @@
         <v>25.22122397250153</v>
       </c>
       <c r="N34" t="n">
-        <v>16.52441230575092</v>
+        <v>86.65867811692044</v>
       </c>
       <c r="O34" t="n">
         <v>37.48281412028787</v>
       </c>
       <c r="P34" t="n">
-        <v>58.48196179900674</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="Q34" t="n">
         <v>127.2193142604766</v>
       </c>
       <c r="R34" t="n">
-        <v>214.3979138113496</v>
+        <v>203.4312113734075</v>
       </c>
       <c r="S34" t="n">
         <v>214.3979138113496</v>
@@ -29983,52 +29983,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>272.0590744345018</v>
+        <v>272.0590744345019</v>
       </c>
       <c r="C35" t="n">
-        <v>272.0590744345018</v>
+        <v>272.0590744345019</v>
       </c>
       <c r="D35" t="n">
-        <v>272.0590744345018</v>
+        <v>272.0590744345019</v>
       </c>
       <c r="E35" t="n">
-        <v>272.0590744345018</v>
+        <v>272.0590744345019</v>
       </c>
       <c r="F35" t="n">
-        <v>272.0590744345018</v>
+        <v>272.0590744345019</v>
       </c>
       <c r="G35" t="n">
-        <v>272.0590744345018</v>
+        <v>272.0590744345019</v>
       </c>
       <c r="H35" t="n">
-        <v>272.0590744345018</v>
+        <v>272.0590744345019</v>
       </c>
       <c r="I35" t="n">
-        <v>272.0590744345018</v>
+        <v>272.0590744345019</v>
       </c>
       <c r="J35" t="n">
-        <v>76.78688000567907</v>
+        <v>272.0590744345019</v>
       </c>
       <c r="K35" t="n">
-        <v>46.99377213936819</v>
+        <v>6.735077083103192</v>
       </c>
       <c r="L35" t="n">
-        <v>213.2782666360717</v>
+        <v>213.2782666360716</v>
       </c>
       <c r="M35" t="n">
-        <v>178.7934532276788</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>169.8989483148104</v>
       </c>
       <c r="P35" t="n">
-        <v>272.0590744345018</v>
+        <v>15.10088611163695</v>
       </c>
       <c r="Q35" t="n">
-        <v>89.71843090037098</v>
+        <v>272.0590744345019</v>
       </c>
       <c r="R35" t="n">
         <v>194.8854391524908</v>
@@ -30037,22 +30037,22 @@
         <v>227.518407079678</v>
       </c>
       <c r="T35" t="n">
-        <v>272.0590744345018</v>
+        <v>222.4661527464647</v>
       </c>
       <c r="U35" t="n">
-        <v>272.0590744345018</v>
+        <v>250.1505464515833</v>
       </c>
       <c r="V35" t="n">
-        <v>272.0590744345018</v>
+        <v>272.0590744345019</v>
       </c>
       <c r="W35" t="n">
-        <v>272.0590744345018</v>
+        <v>272.0590744345019</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0590744345018</v>
+        <v>272.0590744345019</v>
       </c>
       <c r="Y35" t="n">
-        <v>272.0590744345018</v>
+        <v>272.0590744345019</v>
       </c>
     </row>
     <row r="36">
@@ -30065,16 +30065,16 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>131.3913412508517</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
         <v>148.7446376404189</v>
@@ -30083,10 +30083,10 @@
         <v>125.7358448975026</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>107.364552236389</v>
       </c>
       <c r="J36" t="n">
-        <v>52.47830382393109</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30107,22 +30107,22 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.873689458423112</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>134.7218599774646</v>
       </c>
       <c r="S36" t="n">
-        <v>191.5914073600452</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>237.2280716788486</v>
+        <v>141.0717377481674</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
         <v>266.7045835770116</v>
@@ -30147,7 +30147,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D37" t="n">
-        <v>180.7393451854503</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E37" t="n">
         <v>141.676141212225</v>
@@ -30180,7 +30180,7 @@
         <v>16.52441230575092</v>
       </c>
       <c r="O37" t="n">
-        <v>37.48281412028787</v>
+        <v>73.03950905502739</v>
       </c>
       <c r="P37" t="n">
         <v>58.48196179900674</v>
@@ -30198,13 +30198,13 @@
         <v>223.761677253872</v>
       </c>
       <c r="U37" t="n">
-        <v>272.0590744345018</v>
+        <v>272.0590744345019</v>
       </c>
       <c r="V37" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W37" t="n">
-        <v>272.0590744345018</v>
+        <v>272.0590744345019</v>
       </c>
       <c r="X37" t="n">
         <v>221.9194554082425</v>
@@ -30220,34 +30220,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>272.0590744345018</v>
+        <v>272.0590744345019</v>
       </c>
       <c r="C38" t="n">
-        <v>272.0590744345018</v>
+        <v>272.0590744345019</v>
       </c>
       <c r="D38" t="n">
-        <v>272.0590744345018</v>
+        <v>272.0590744345019</v>
       </c>
       <c r="E38" t="n">
-        <v>272.0590744345018</v>
+        <v>272.0590744345019</v>
       </c>
       <c r="F38" t="n">
-        <v>272.0590744345018</v>
+        <v>272.0590744345019</v>
       </c>
       <c r="G38" t="n">
-        <v>272.0590744345018</v>
+        <v>272.0590744345019</v>
       </c>
       <c r="H38" t="n">
-        <v>272.0590744345018</v>
+        <v>272.0590744345019</v>
       </c>
       <c r="I38" t="n">
-        <v>241.0121589565495</v>
+        <v>272.0590744345019</v>
       </c>
       <c r="J38" t="n">
-        <v>76.78688000567907</v>
+        <v>176.9930944279001</v>
       </c>
       <c r="K38" t="n">
-        <v>267.1963319404239</v>
+        <v>6.735077083103192</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -30259,7 +30259,7 @@
         <v>184.3835343485709</v>
       </c>
       <c r="O38" t="n">
-        <v>168.1987259582178</v>
+        <v>225.9054012444091</v>
       </c>
       <c r="P38" t="n">
         <v>15.10088611163695</v>
@@ -30274,22 +30274,22 @@
         <v>227.518407079678</v>
       </c>
       <c r="T38" t="n">
-        <v>222.4661527464647</v>
+        <v>272.0590744345019</v>
       </c>
       <c r="U38" t="n">
-        <v>250.1505464515833</v>
+        <v>272.0590744345019</v>
       </c>
       <c r="V38" t="n">
-        <v>272.0590744345018</v>
+        <v>272.0590744345019</v>
       </c>
       <c r="W38" t="n">
-        <v>272.0590744345018</v>
+        <v>272.0590744345019</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0590744345018</v>
+        <v>272.0590744345019</v>
       </c>
       <c r="Y38" t="n">
-        <v>272.0590744345018</v>
+        <v>272.0590744345019</v>
       </c>
     </row>
     <row r="39">
@@ -30302,10 +30302,10 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>104.7732787259471</v>
       </c>
       <c r="E39" t="n">
         <v>171.8275718397997</v>
@@ -30353,19 +30353,19 @@
         <v>191.5914073600452</v>
       </c>
       <c r="T39" t="n">
-        <v>150.5895919630888</v>
+        <v>214.9710572869065</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>6.243328719690908</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>223.3842861340256</v>
@@ -30393,7 +30393,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G40" t="n">
-        <v>204.257497666978</v>
+        <v>168.7008027322384</v>
       </c>
       <c r="H40" t="n">
         <v>165.824644867158</v>
@@ -30414,7 +30414,7 @@
         <v>25.22122397250153</v>
       </c>
       <c r="N40" t="n">
-        <v>16.52441230575092</v>
+        <v>52.08110724049044</v>
       </c>
       <c r="O40" t="n">
         <v>37.48281412028787</v>
@@ -30435,13 +30435,13 @@
         <v>223.761677253872</v>
       </c>
       <c r="U40" t="n">
-        <v>272.0590744345018</v>
+        <v>272.0590744345019</v>
       </c>
       <c r="V40" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W40" t="n">
-        <v>272.0590744345018</v>
+        <v>272.0590744345019</v>
       </c>
       <c r="X40" t="n">
         <v>221.9194554082425</v>
@@ -30481,34 +30481,34 @@
         <v>241.0121589565495</v>
       </c>
       <c r="J41" t="n">
+        <v>76.78688000567907</v>
+      </c>
+      <c r="K41" t="n">
         <v>241.0121589565495</v>
-      </c>
-      <c r="K41" t="n">
-        <v>114.3456051080626</v>
       </c>
       <c r="L41" t="n">
         <v>241.0121589565495</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>241.0121589565495</v>
       </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
       <c r="P41" t="n">
-        <v>241.0121589565495</v>
+        <v>15.10088611163695</v>
       </c>
       <c r="Q41" t="n">
         <v>241.0121589565495</v>
       </c>
       <c r="R41" t="n">
-        <v>194.8854391524908</v>
+        <v>203.8495262663658</v>
       </c>
       <c r="S41" t="n">
-        <v>227.518407079678</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="T41" t="n">
         <v>241.0121589565495</v>
@@ -30548,10 +30548,10 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>148.7446376404189</v>
       </c>
       <c r="H42" t="n">
         <v>125.7358448975026</v>
@@ -30581,13 +30581,13 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>6.873689458423112</v>
       </c>
       <c r="R42" t="n">
-        <v>134.7218599774646</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>191.5914073600452</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>214.9710572869065</v>
@@ -30602,7 +30602,7 @@
         <v>241.0121589565495</v>
       </c>
       <c r="X42" t="n">
-        <v>45.0862335731988</v>
+        <v>56.95773469193821</v>
       </c>
       <c r="Y42" t="n">
         <v>223.3842861340256</v>
@@ -30621,7 +30621,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D43" t="n">
-        <v>210.693023848411</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E43" t="n">
         <v>141.676141212225</v>
@@ -30648,7 +30648,7 @@
         <v>32.15595010613786</v>
       </c>
       <c r="M43" t="n">
-        <v>25.22122397250153</v>
+        <v>128.3125451533438</v>
       </c>
       <c r="N43" t="n">
         <v>16.52441230575092</v>
@@ -30663,7 +30663,7 @@
         <v>127.2193142604766</v>
       </c>
       <c r="R43" t="n">
-        <v>241.0121589565495</v>
+        <v>203.4312113734075</v>
       </c>
       <c r="S43" t="n">
         <v>235.4385289329965</v>
@@ -30721,10 +30721,10 @@
         <v>241.0121589565495</v>
       </c>
       <c r="K44" t="n">
-        <v>58.17025352558008</v>
+        <v>6.735077083103157</v>
       </c>
       <c r="L44" t="n">
-        <v>241.0121589565495</v>
+        <v>217.8297906102924</v>
       </c>
       <c r="M44" t="n">
         <v>241.0121589565495</v>
@@ -30736,10 +30736,10 @@
         <v>241.0121589565495</v>
       </c>
       <c r="P44" t="n">
-        <v>15.10088611163691</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="Q44" t="n">
-        <v>241.0121589565495</v>
+        <v>89.71843090037096</v>
       </c>
       <c r="R44" t="n">
         <v>241.0121589565495</v>
@@ -30779,10 +30779,10 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
         <v>158.8234391199283</v>
@@ -30824,19 +30824,19 @@
         <v>134.7218599774646</v>
       </c>
       <c r="S45" t="n">
-        <v>191.5914073600452</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>63.08658439594328</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2280716788486</v>
+        <v>160.5429384773116</v>
       </c>
       <c r="V45" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="X45" t="n">
         <v>217.3129144394706</v>
@@ -30870,7 +30870,7 @@
         <v>168.7008027322384</v>
       </c>
       <c r="H46" t="n">
-        <v>241.0121589565495</v>
+        <v>165.824644867158</v>
       </c>
       <c r="I46" t="n">
         <v>164.8538042427313</v>
@@ -30888,13 +30888,13 @@
         <v>25.22122397250152</v>
       </c>
       <c r="N46" t="n">
-        <v>44.42821939720171</v>
+        <v>16.52441230575091</v>
       </c>
       <c r="O46" t="n">
         <v>37.48281412028786</v>
       </c>
       <c r="P46" t="n">
-        <v>58.48196179900673</v>
+        <v>161.573282979849</v>
       </c>
       <c r="Q46" t="n">
         <v>127.2193142604766</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4066571452937378</v>
+        <v>0.4066571452937375</v>
       </c>
       <c r="H11" t="n">
-        <v>4.164677489239493</v>
+        <v>4.16467748923949</v>
       </c>
       <c r="I11" t="n">
-        <v>15.67764959393684</v>
+        <v>15.67764959393683</v>
       </c>
       <c r="J11" t="n">
-        <v>34.51451688537441</v>
+        <v>34.51451688537438</v>
       </c>
       <c r="K11" t="n">
-        <v>51.72831384565833</v>
+        <v>51.7283138456583</v>
       </c>
       <c r="L11" t="n">
-        <v>64.17354745594157</v>
+        <v>64.17354745594153</v>
       </c>
       <c r="M11" t="n">
-        <v>71.40543646355908</v>
+        <v>71.40543646355903</v>
       </c>
       <c r="N11" t="n">
-        <v>72.56085107762492</v>
+        <v>72.56085107762487</v>
       </c>
       <c r="O11" t="n">
-        <v>68.51715408911032</v>
+        <v>68.51715408911026</v>
       </c>
       <c r="P11" t="n">
-        <v>58.47780581467115</v>
+        <v>58.47780581467111</v>
       </c>
       <c r="Q11" t="n">
-        <v>43.91439679883916</v>
+        <v>43.91439679883913</v>
       </c>
       <c r="R11" t="n">
-        <v>25.54467690305778</v>
+        <v>25.54467690305776</v>
       </c>
       <c r="S11" t="n">
-        <v>9.266699698381059</v>
+        <v>9.266699698381052</v>
       </c>
       <c r="T11" t="n">
-        <v>1.780141653523338</v>
+        <v>1.780141653523337</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03253257162349901</v>
+        <v>0.03253257162349899</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2175807546729656</v>
+        <v>0.2175807546729655</v>
       </c>
       <c r="H12" t="n">
-        <v>2.101372025394168</v>
+        <v>2.101372025394167</v>
       </c>
       <c r="I12" t="n">
-        <v>7.491267211327984</v>
+        <v>7.491267211327979</v>
       </c>
       <c r="J12" t="n">
-        <v>20.55660980881734</v>
+        <v>20.55660980881732</v>
       </c>
       <c r="K12" t="n">
-        <v>35.13452037190604</v>
+        <v>35.13452037190601</v>
       </c>
       <c r="L12" t="n">
-        <v>47.24269850914546</v>
+        <v>47.24269850914542</v>
       </c>
       <c r="M12" t="n">
-        <v>55.13000086604045</v>
+        <v>55.13000086604041</v>
       </c>
       <c r="N12" t="n">
-        <v>56.58912794452714</v>
+        <v>56.58912794452711</v>
       </c>
       <c r="O12" t="n">
-        <v>51.7679964857209</v>
+        <v>51.76799648572086</v>
       </c>
       <c r="P12" t="n">
-        <v>41.54838112698061</v>
+        <v>41.54838112698058</v>
       </c>
       <c r="Q12" t="n">
-        <v>27.77399247369295</v>
+        <v>27.77399247369293</v>
       </c>
       <c r="R12" t="n">
-        <v>13.50909282083554</v>
+        <v>13.50909282083553</v>
       </c>
       <c r="S12" t="n">
-        <v>4.041467087894776</v>
+        <v>4.041467087894772</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8770031295809444</v>
+        <v>0.8770031295809438</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01431452333374774</v>
+        <v>0.01431452333374773</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1824123957065558</v>
+        <v>0.1824123957065557</v>
       </c>
       <c r="H13" t="n">
-        <v>1.621812027281925</v>
+        <v>1.621812027281924</v>
       </c>
       <c r="I13" t="n">
-        <v>5.485638227248063</v>
+        <v>5.485638227248059</v>
       </c>
       <c r="J13" t="n">
-        <v>12.8965563764535</v>
+        <v>12.89655637645349</v>
       </c>
       <c r="K13" t="n">
-        <v>21.19300379208894</v>
+        <v>21.19300379208892</v>
       </c>
       <c r="L13" t="n">
-        <v>27.11974835804559</v>
+        <v>27.11974835804557</v>
       </c>
       <c r="M13" t="n">
-        <v>28.59397217425584</v>
+        <v>28.59397217425582</v>
       </c>
       <c r="N13" t="n">
-        <v>27.91407142662234</v>
+        <v>27.91407142662231</v>
       </c>
       <c r="O13" t="n">
-        <v>25.78316298586847</v>
+        <v>25.78316298586845</v>
       </c>
       <c r="P13" t="n">
-        <v>22.06195011345471</v>
+        <v>22.0619501134547</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.27455069866442</v>
+        <v>15.27455069866441</v>
       </c>
       <c r="R13" t="n">
-        <v>8.201924628769319</v>
+        <v>8.201924628769312</v>
       </c>
       <c r="S13" t="n">
-        <v>3.17895056881334</v>
+        <v>3.178950568813338</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7793984180189203</v>
+        <v>0.7793984180189197</v>
       </c>
       <c r="U13" t="n">
-        <v>0.009949767038539422</v>
+        <v>0.009949767038539415</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4066571452937378</v>
+        <v>0.4066571452937375</v>
       </c>
       <c r="H14" t="n">
-        <v>4.164677489239493</v>
+        <v>4.16467748923949</v>
       </c>
       <c r="I14" t="n">
-        <v>15.67764959393684</v>
+        <v>15.67764959393683</v>
       </c>
       <c r="J14" t="n">
-        <v>34.51451688537441</v>
+        <v>34.51451688537438</v>
       </c>
       <c r="K14" t="n">
-        <v>51.72831384565833</v>
+        <v>51.7283138456583</v>
       </c>
       <c r="L14" t="n">
-        <v>64.17354745594157</v>
+        <v>64.17354745594153</v>
       </c>
       <c r="M14" t="n">
-        <v>71.40543646355908</v>
+        <v>71.40543646355903</v>
       </c>
       <c r="N14" t="n">
-        <v>72.56085107762492</v>
+        <v>72.56085107762487</v>
       </c>
       <c r="O14" t="n">
-        <v>68.51715408911032</v>
+        <v>68.51715408911026</v>
       </c>
       <c r="P14" t="n">
-        <v>58.47780581467115</v>
+        <v>58.47780581467111</v>
       </c>
       <c r="Q14" t="n">
-        <v>43.91439679883916</v>
+        <v>43.91439679883913</v>
       </c>
       <c r="R14" t="n">
-        <v>25.54467690305778</v>
+        <v>25.54467690305776</v>
       </c>
       <c r="S14" t="n">
-        <v>9.266699698381059</v>
+        <v>9.266699698381052</v>
       </c>
       <c r="T14" t="n">
-        <v>1.780141653523338</v>
+        <v>1.780141653523337</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03253257162349901</v>
+        <v>0.03253257162349899</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2175807546729656</v>
+        <v>0.2175807546729655</v>
       </c>
       <c r="H15" t="n">
-        <v>2.101372025394168</v>
+        <v>2.101372025394167</v>
       </c>
       <c r="I15" t="n">
-        <v>7.491267211327984</v>
+        <v>7.491267211327979</v>
       </c>
       <c r="J15" t="n">
-        <v>20.55660980881734</v>
+        <v>20.55660980881732</v>
       </c>
       <c r="K15" t="n">
-        <v>35.13452037190604</v>
+        <v>35.13452037190601</v>
       </c>
       <c r="L15" t="n">
-        <v>47.24269850914546</v>
+        <v>47.24269850914542</v>
       </c>
       <c r="M15" t="n">
-        <v>55.13000086604045</v>
+        <v>55.13000086604041</v>
       </c>
       <c r="N15" t="n">
-        <v>56.58912794452714</v>
+        <v>56.58912794452711</v>
       </c>
       <c r="O15" t="n">
-        <v>51.7679964857209</v>
+        <v>51.76799648572086</v>
       </c>
       <c r="P15" t="n">
-        <v>41.54838112698061</v>
+        <v>41.54838112698058</v>
       </c>
       <c r="Q15" t="n">
-        <v>27.77399247369295</v>
+        <v>27.77399247369293</v>
       </c>
       <c r="R15" t="n">
-        <v>13.50909282083554</v>
+        <v>13.50909282083553</v>
       </c>
       <c r="S15" t="n">
-        <v>4.041467087894776</v>
+        <v>4.041467087894772</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8770031295809444</v>
+        <v>0.8770031295809438</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01431452333374774</v>
+        <v>0.01431452333374773</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1824123957065558</v>
+        <v>0.1824123957065557</v>
       </c>
       <c r="H16" t="n">
-        <v>1.621812027281925</v>
+        <v>1.621812027281924</v>
       </c>
       <c r="I16" t="n">
-        <v>5.485638227248063</v>
+        <v>5.485638227248059</v>
       </c>
       <c r="J16" t="n">
-        <v>12.8965563764535</v>
+        <v>12.89655637645349</v>
       </c>
       <c r="K16" t="n">
-        <v>21.19300379208894</v>
+        <v>21.19300379208892</v>
       </c>
       <c r="L16" t="n">
-        <v>27.11974835804559</v>
+        <v>27.11974835804557</v>
       </c>
       <c r="M16" t="n">
-        <v>28.59397217425584</v>
+        <v>28.59397217425582</v>
       </c>
       <c r="N16" t="n">
-        <v>27.91407142662234</v>
+        <v>27.91407142662231</v>
       </c>
       <c r="O16" t="n">
-        <v>25.78316298586847</v>
+        <v>25.78316298586845</v>
       </c>
       <c r="P16" t="n">
-        <v>22.06195011345471</v>
+        <v>22.0619501134547</v>
       </c>
       <c r="Q16" t="n">
-        <v>15.27455069866442</v>
+        <v>15.27455069866441</v>
       </c>
       <c r="R16" t="n">
-        <v>8.201924628769319</v>
+        <v>8.201924628769312</v>
       </c>
       <c r="S16" t="n">
-        <v>3.17895056881334</v>
+        <v>3.178950568813338</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7793984180189203</v>
+        <v>0.7793984180189197</v>
       </c>
       <c r="U16" t="n">
-        <v>0.009949767038539422</v>
+        <v>0.009949767038539415</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4066571452937378</v>
+        <v>0.4066571452937375</v>
       </c>
       <c r="H17" t="n">
-        <v>4.164677489239493</v>
+        <v>4.16467748923949</v>
       </c>
       <c r="I17" t="n">
-        <v>15.67764959393684</v>
+        <v>15.67764959393683</v>
       </c>
       <c r="J17" t="n">
-        <v>34.51451688537441</v>
+        <v>34.51451688537438</v>
       </c>
       <c r="K17" t="n">
-        <v>51.72831384565833</v>
+        <v>51.7283138456583</v>
       </c>
       <c r="L17" t="n">
-        <v>64.17354745594157</v>
+        <v>64.17354745594153</v>
       </c>
       <c r="M17" t="n">
-        <v>71.40543646355908</v>
+        <v>71.40543646355903</v>
       </c>
       <c r="N17" t="n">
-        <v>72.56085107762492</v>
+        <v>72.56085107762487</v>
       </c>
       <c r="O17" t="n">
-        <v>68.51715408911032</v>
+        <v>68.51715408911026</v>
       </c>
       <c r="P17" t="n">
-        <v>58.47780581467115</v>
+        <v>58.47780581467111</v>
       </c>
       <c r="Q17" t="n">
-        <v>43.91439679883916</v>
+        <v>43.91439679883913</v>
       </c>
       <c r="R17" t="n">
-        <v>25.54467690305778</v>
+        <v>25.54467690305776</v>
       </c>
       <c r="S17" t="n">
-        <v>9.266699698381059</v>
+        <v>9.266699698381052</v>
       </c>
       <c r="T17" t="n">
-        <v>1.780141653523338</v>
+        <v>1.780141653523337</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03253257162349901</v>
+        <v>0.03253257162349899</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2175807546729656</v>
+        <v>0.2175807546729655</v>
       </c>
       <c r="H18" t="n">
-        <v>2.101372025394168</v>
+        <v>2.101372025394167</v>
       </c>
       <c r="I18" t="n">
-        <v>7.491267211327984</v>
+        <v>7.491267211327979</v>
       </c>
       <c r="J18" t="n">
-        <v>20.55660980881734</v>
+        <v>20.55660980881732</v>
       </c>
       <c r="K18" t="n">
-        <v>35.13452037190604</v>
+        <v>35.13452037190601</v>
       </c>
       <c r="L18" t="n">
-        <v>47.24269850914546</v>
+        <v>47.24269850914542</v>
       </c>
       <c r="M18" t="n">
-        <v>55.13000086604045</v>
+        <v>55.13000086604041</v>
       </c>
       <c r="N18" t="n">
-        <v>56.58912794452714</v>
+        <v>56.58912794452711</v>
       </c>
       <c r="O18" t="n">
-        <v>51.7679964857209</v>
+        <v>51.76799648572086</v>
       </c>
       <c r="P18" t="n">
-        <v>41.54838112698061</v>
+        <v>41.54838112698058</v>
       </c>
       <c r="Q18" t="n">
-        <v>27.77399247369295</v>
+        <v>27.77399247369293</v>
       </c>
       <c r="R18" t="n">
-        <v>13.50909282083554</v>
+        <v>13.50909282083553</v>
       </c>
       <c r="S18" t="n">
-        <v>4.041467087894776</v>
+        <v>4.041467087894772</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8770031295809444</v>
+        <v>0.8770031295809438</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01431452333374774</v>
+        <v>0.01431452333374773</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1824123957065558</v>
+        <v>0.1824123957065557</v>
       </c>
       <c r="H19" t="n">
-        <v>1.621812027281925</v>
+        <v>1.621812027281924</v>
       </c>
       <c r="I19" t="n">
-        <v>5.485638227248063</v>
+        <v>5.485638227248059</v>
       </c>
       <c r="J19" t="n">
-        <v>12.8965563764535</v>
+        <v>12.89655637645349</v>
       </c>
       <c r="K19" t="n">
-        <v>21.19300379208894</v>
+        <v>21.19300379208892</v>
       </c>
       <c r="L19" t="n">
-        <v>27.11974835804559</v>
+        <v>27.11974835804557</v>
       </c>
       <c r="M19" t="n">
-        <v>28.59397217425584</v>
+        <v>28.59397217425582</v>
       </c>
       <c r="N19" t="n">
-        <v>27.91407142662234</v>
+        <v>27.91407142662231</v>
       </c>
       <c r="O19" t="n">
-        <v>25.78316298586847</v>
+        <v>25.78316298586845</v>
       </c>
       <c r="P19" t="n">
-        <v>22.06195011345471</v>
+        <v>22.0619501134547</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.27455069866442</v>
+        <v>15.27455069866441</v>
       </c>
       <c r="R19" t="n">
-        <v>8.201924628769319</v>
+        <v>8.201924628769312</v>
       </c>
       <c r="S19" t="n">
-        <v>3.17895056881334</v>
+        <v>3.178950568813338</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7793984180189203</v>
+        <v>0.7793984180189197</v>
       </c>
       <c r="U19" t="n">
-        <v>0.009949767038539422</v>
+        <v>0.009949767038539415</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4066571452937378</v>
+        <v>0.4066571452937375</v>
       </c>
       <c r="H20" t="n">
-        <v>4.164677489239493</v>
+        <v>4.16467748923949</v>
       </c>
       <c r="I20" t="n">
-        <v>15.67764959393684</v>
+        <v>15.67764959393683</v>
       </c>
       <c r="J20" t="n">
-        <v>34.51451688537441</v>
+        <v>34.51451688537438</v>
       </c>
       <c r="K20" t="n">
-        <v>51.72831384565833</v>
+        <v>51.7283138456583</v>
       </c>
       <c r="L20" t="n">
-        <v>64.17354745594157</v>
+        <v>64.17354745594153</v>
       </c>
       <c r="M20" t="n">
-        <v>71.40543646355908</v>
+        <v>71.40543646355903</v>
       </c>
       <c r="N20" t="n">
-        <v>72.56085107762492</v>
+        <v>72.56085107762487</v>
       </c>
       <c r="O20" t="n">
-        <v>68.51715408911032</v>
+        <v>68.51715408911026</v>
       </c>
       <c r="P20" t="n">
-        <v>58.47780581467115</v>
+        <v>58.47780581467111</v>
       </c>
       <c r="Q20" t="n">
-        <v>43.91439679883916</v>
+        <v>43.91439679883913</v>
       </c>
       <c r="R20" t="n">
-        <v>25.54467690305778</v>
+        <v>25.54467690305776</v>
       </c>
       <c r="S20" t="n">
-        <v>9.266699698381059</v>
+        <v>9.266699698381052</v>
       </c>
       <c r="T20" t="n">
-        <v>1.780141653523338</v>
+        <v>1.780141653523337</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03253257162349901</v>
+        <v>0.03253257162349899</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2175807546729656</v>
+        <v>0.2175807546729655</v>
       </c>
       <c r="H21" t="n">
-        <v>2.101372025394168</v>
+        <v>2.101372025394167</v>
       </c>
       <c r="I21" t="n">
-        <v>7.491267211327984</v>
+        <v>7.491267211327979</v>
       </c>
       <c r="J21" t="n">
-        <v>20.55660980881734</v>
+        <v>20.55660980881732</v>
       </c>
       <c r="K21" t="n">
-        <v>35.13452037190604</v>
+        <v>35.13452037190601</v>
       </c>
       <c r="L21" t="n">
-        <v>47.24269850914546</v>
+        <v>47.24269850914542</v>
       </c>
       <c r="M21" t="n">
-        <v>55.13000086604045</v>
+        <v>55.13000086604041</v>
       </c>
       <c r="N21" t="n">
-        <v>56.58912794452714</v>
+        <v>56.58912794452711</v>
       </c>
       <c r="O21" t="n">
-        <v>51.7679964857209</v>
+        <v>51.76799648572086</v>
       </c>
       <c r="P21" t="n">
-        <v>41.54838112698061</v>
+        <v>41.54838112698058</v>
       </c>
       <c r="Q21" t="n">
-        <v>27.77399247369295</v>
+        <v>27.77399247369293</v>
       </c>
       <c r="R21" t="n">
-        <v>13.50909282083554</v>
+        <v>13.50909282083553</v>
       </c>
       <c r="S21" t="n">
-        <v>4.041467087894776</v>
+        <v>4.041467087894772</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8770031295809444</v>
+        <v>0.8770031295809438</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01431452333374774</v>
+        <v>0.01431452333374773</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1824123957065558</v>
+        <v>0.1824123957065557</v>
       </c>
       <c r="H22" t="n">
-        <v>1.621812027281925</v>
+        <v>1.621812027281924</v>
       </c>
       <c r="I22" t="n">
-        <v>5.485638227248063</v>
+        <v>5.485638227248059</v>
       </c>
       <c r="J22" t="n">
-        <v>12.8965563764535</v>
+        <v>12.89655637645349</v>
       </c>
       <c r="K22" t="n">
-        <v>21.19300379208894</v>
+        <v>21.19300379208892</v>
       </c>
       <c r="L22" t="n">
-        <v>27.11974835804559</v>
+        <v>27.11974835804557</v>
       </c>
       <c r="M22" t="n">
-        <v>28.59397217425584</v>
+        <v>28.59397217425582</v>
       </c>
       <c r="N22" t="n">
-        <v>27.91407142662234</v>
+        <v>27.91407142662231</v>
       </c>
       <c r="O22" t="n">
-        <v>25.78316298586847</v>
+        <v>25.78316298586845</v>
       </c>
       <c r="P22" t="n">
-        <v>22.06195011345471</v>
+        <v>22.0619501134547</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.27455069866442</v>
+        <v>15.27455069866441</v>
       </c>
       <c r="R22" t="n">
-        <v>8.201924628769319</v>
+        <v>8.201924628769312</v>
       </c>
       <c r="S22" t="n">
-        <v>3.17895056881334</v>
+        <v>3.178950568813338</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7793984180189203</v>
+        <v>0.7793984180189197</v>
       </c>
       <c r="U22" t="n">
-        <v>0.009949767038539422</v>
+        <v>0.009949767038539415</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4066571452937378</v>
+        <v>0.4066571452937375</v>
       </c>
       <c r="H23" t="n">
-        <v>4.164677489239493</v>
+        <v>4.16467748923949</v>
       </c>
       <c r="I23" t="n">
-        <v>15.67764959393684</v>
+        <v>15.67764959393683</v>
       </c>
       <c r="J23" t="n">
-        <v>34.51451688537441</v>
+        <v>34.51451688537438</v>
       </c>
       <c r="K23" t="n">
-        <v>51.72831384565833</v>
+        <v>51.7283138456583</v>
       </c>
       <c r="L23" t="n">
-        <v>64.17354745594157</v>
+        <v>64.17354745594153</v>
       </c>
       <c r="M23" t="n">
-        <v>71.40543646355908</v>
+        <v>71.40543646355903</v>
       </c>
       <c r="N23" t="n">
-        <v>72.56085107762492</v>
+        <v>72.56085107762487</v>
       </c>
       <c r="O23" t="n">
-        <v>68.51715408911032</v>
+        <v>68.51715408911026</v>
       </c>
       <c r="P23" t="n">
-        <v>58.47780581467115</v>
+        <v>58.47780581467111</v>
       </c>
       <c r="Q23" t="n">
-        <v>43.91439679883916</v>
+        <v>43.91439679883913</v>
       </c>
       <c r="R23" t="n">
-        <v>25.54467690305778</v>
+        <v>25.54467690305776</v>
       </c>
       <c r="S23" t="n">
-        <v>9.266699698381059</v>
+        <v>9.266699698381052</v>
       </c>
       <c r="T23" t="n">
-        <v>1.780141653523338</v>
+        <v>1.780141653523337</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03253257162349901</v>
+        <v>0.03253257162349899</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2175807546729656</v>
+        <v>0.2175807546729655</v>
       </c>
       <c r="H24" t="n">
-        <v>2.101372025394168</v>
+        <v>2.101372025394167</v>
       </c>
       <c r="I24" t="n">
-        <v>7.491267211327984</v>
+        <v>7.491267211327979</v>
       </c>
       <c r="J24" t="n">
-        <v>20.55660980881734</v>
+        <v>20.55660980881732</v>
       </c>
       <c r="K24" t="n">
-        <v>35.13452037190604</v>
+        <v>35.13452037190601</v>
       </c>
       <c r="L24" t="n">
-        <v>47.24269850914546</v>
+        <v>47.24269850914542</v>
       </c>
       <c r="M24" t="n">
-        <v>55.13000086604045</v>
+        <v>55.13000086604041</v>
       </c>
       <c r="N24" t="n">
-        <v>56.58912794452714</v>
+        <v>56.58912794452711</v>
       </c>
       <c r="O24" t="n">
-        <v>51.7679964857209</v>
+        <v>51.76799648572086</v>
       </c>
       <c r="P24" t="n">
-        <v>41.54838112698061</v>
+        <v>41.54838112698058</v>
       </c>
       <c r="Q24" t="n">
-        <v>27.77399247369295</v>
+        <v>27.77399247369293</v>
       </c>
       <c r="R24" t="n">
-        <v>13.50909282083554</v>
+        <v>13.50909282083553</v>
       </c>
       <c r="S24" t="n">
-        <v>4.041467087894776</v>
+        <v>4.041467087894772</v>
       </c>
       <c r="T24" t="n">
-        <v>0.8770031295809444</v>
+        <v>0.8770031295809438</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01431452333374774</v>
+        <v>0.01431452333374773</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1824123957065558</v>
+        <v>0.1824123957065557</v>
       </c>
       <c r="H25" t="n">
-        <v>1.621812027281925</v>
+        <v>1.621812027281924</v>
       </c>
       <c r="I25" t="n">
-        <v>5.485638227248063</v>
+        <v>5.485638227248059</v>
       </c>
       <c r="J25" t="n">
-        <v>12.8965563764535</v>
+        <v>12.89655637645349</v>
       </c>
       <c r="K25" t="n">
-        <v>21.19300379208894</v>
+        <v>21.19300379208892</v>
       </c>
       <c r="L25" t="n">
-        <v>27.11974835804559</v>
+        <v>27.11974835804557</v>
       </c>
       <c r="M25" t="n">
-        <v>28.59397217425584</v>
+        <v>28.59397217425582</v>
       </c>
       <c r="N25" t="n">
-        <v>27.91407142662234</v>
+        <v>27.91407142662231</v>
       </c>
       <c r="O25" t="n">
-        <v>25.78316298586847</v>
+        <v>25.78316298586845</v>
       </c>
       <c r="P25" t="n">
-        <v>22.06195011345471</v>
+        <v>22.0619501134547</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.27455069866442</v>
+        <v>15.27455069866441</v>
       </c>
       <c r="R25" t="n">
-        <v>8.201924628769319</v>
+        <v>8.201924628769312</v>
       </c>
       <c r="S25" t="n">
-        <v>3.17895056881334</v>
+        <v>3.178950568813338</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7793984180189203</v>
+        <v>0.7793984180189197</v>
       </c>
       <c r="U25" t="n">
-        <v>0.009949767038539422</v>
+        <v>0.009949767038539415</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4066571452937378</v>
+        <v>0.4066571452937375</v>
       </c>
       <c r="H26" t="n">
-        <v>4.164677489239493</v>
+        <v>4.16467748923949</v>
       </c>
       <c r="I26" t="n">
-        <v>15.67764959393684</v>
+        <v>15.67764959393683</v>
       </c>
       <c r="J26" t="n">
-        <v>34.51451688537441</v>
+        <v>34.51451688537438</v>
       </c>
       <c r="K26" t="n">
-        <v>51.72831384565833</v>
+        <v>51.7283138456583</v>
       </c>
       <c r="L26" t="n">
-        <v>64.17354745594157</v>
+        <v>64.17354745594153</v>
       </c>
       <c r="M26" t="n">
-        <v>71.40543646355908</v>
+        <v>71.40543646355903</v>
       </c>
       <c r="N26" t="n">
-        <v>72.56085107762492</v>
+        <v>72.56085107762487</v>
       </c>
       <c r="O26" t="n">
-        <v>68.51715408911032</v>
+        <v>68.51715408911026</v>
       </c>
       <c r="P26" t="n">
-        <v>58.47780581467115</v>
+        <v>58.47780581467111</v>
       </c>
       <c r="Q26" t="n">
-        <v>43.91439679883916</v>
+        <v>43.91439679883913</v>
       </c>
       <c r="R26" t="n">
-        <v>25.54467690305778</v>
+        <v>25.54467690305776</v>
       </c>
       <c r="S26" t="n">
-        <v>9.266699698381059</v>
+        <v>9.266699698381052</v>
       </c>
       <c r="T26" t="n">
-        <v>1.780141653523338</v>
+        <v>1.780141653523337</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03253257162349901</v>
+        <v>0.03253257162349899</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2175807546729656</v>
+        <v>0.2175807546729655</v>
       </c>
       <c r="H27" t="n">
-        <v>2.101372025394168</v>
+        <v>2.101372025394167</v>
       </c>
       <c r="I27" t="n">
-        <v>7.491267211327984</v>
+        <v>7.491267211327979</v>
       </c>
       <c r="J27" t="n">
-        <v>20.55660980881734</v>
+        <v>20.55660980881732</v>
       </c>
       <c r="K27" t="n">
-        <v>35.13452037190604</v>
+        <v>35.13452037190601</v>
       </c>
       <c r="L27" t="n">
-        <v>47.24269850914546</v>
+        <v>47.24269850914542</v>
       </c>
       <c r="M27" t="n">
-        <v>55.13000086604045</v>
+        <v>55.13000086604041</v>
       </c>
       <c r="N27" t="n">
-        <v>56.58912794452714</v>
+        <v>56.58912794452711</v>
       </c>
       <c r="O27" t="n">
-        <v>51.7679964857209</v>
+        <v>51.76799648572086</v>
       </c>
       <c r="P27" t="n">
-        <v>41.54838112698061</v>
+        <v>41.54838112698058</v>
       </c>
       <c r="Q27" t="n">
-        <v>27.77399247369295</v>
+        <v>27.77399247369293</v>
       </c>
       <c r="R27" t="n">
-        <v>13.50909282083554</v>
+        <v>13.50909282083553</v>
       </c>
       <c r="S27" t="n">
-        <v>4.041467087894776</v>
+        <v>4.041467087894772</v>
       </c>
       <c r="T27" t="n">
-        <v>0.8770031295809444</v>
+        <v>0.8770031295809438</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01431452333374774</v>
+        <v>0.01431452333374773</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1824123957065558</v>
+        <v>0.1824123957065557</v>
       </c>
       <c r="H28" t="n">
-        <v>1.621812027281925</v>
+        <v>1.621812027281924</v>
       </c>
       <c r="I28" t="n">
-        <v>5.485638227248063</v>
+        <v>5.485638227248059</v>
       </c>
       <c r="J28" t="n">
-        <v>12.8965563764535</v>
+        <v>12.89655637645349</v>
       </c>
       <c r="K28" t="n">
-        <v>21.19300379208894</v>
+        <v>21.19300379208892</v>
       </c>
       <c r="L28" t="n">
-        <v>27.11974835804559</v>
+        <v>27.11974835804557</v>
       </c>
       <c r="M28" t="n">
-        <v>28.59397217425584</v>
+        <v>28.59397217425582</v>
       </c>
       <c r="N28" t="n">
-        <v>27.91407142662234</v>
+        <v>27.91407142662231</v>
       </c>
       <c r="O28" t="n">
-        <v>25.78316298586847</v>
+        <v>25.78316298586845</v>
       </c>
       <c r="P28" t="n">
-        <v>22.06195011345471</v>
+        <v>22.0619501134547</v>
       </c>
       <c r="Q28" t="n">
-        <v>15.27455069866442</v>
+        <v>15.27455069866441</v>
       </c>
       <c r="R28" t="n">
-        <v>8.201924628769319</v>
+        <v>8.201924628769312</v>
       </c>
       <c r="S28" t="n">
-        <v>3.17895056881334</v>
+        <v>3.178950568813338</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7793984180189203</v>
+        <v>0.7793984180189197</v>
       </c>
       <c r="U28" t="n">
-        <v>0.009949767038539422</v>
+        <v>0.009949767038539415</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4066571452937378</v>
+        <v>0.4066571452937375</v>
       </c>
       <c r="H29" t="n">
-        <v>4.164677489239493</v>
+        <v>4.16467748923949</v>
       </c>
       <c r="I29" t="n">
-        <v>15.67764959393684</v>
+        <v>15.67764959393683</v>
       </c>
       <c r="J29" t="n">
-        <v>34.51451688537441</v>
+        <v>34.51451688537438</v>
       </c>
       <c r="K29" t="n">
-        <v>51.72831384565833</v>
+        <v>51.7283138456583</v>
       </c>
       <c r="L29" t="n">
-        <v>64.17354745594157</v>
+        <v>64.17354745594153</v>
       </c>
       <c r="M29" t="n">
-        <v>71.40543646355908</v>
+        <v>71.40543646355903</v>
       </c>
       <c r="N29" t="n">
-        <v>72.56085107762492</v>
+        <v>72.56085107762487</v>
       </c>
       <c r="O29" t="n">
-        <v>68.51715408911032</v>
+        <v>68.51715408911026</v>
       </c>
       <c r="P29" t="n">
-        <v>58.47780581467115</v>
+        <v>58.47780581467111</v>
       </c>
       <c r="Q29" t="n">
-        <v>43.91439679883916</v>
+        <v>43.91439679883913</v>
       </c>
       <c r="R29" t="n">
-        <v>25.54467690305778</v>
+        <v>25.54467690305776</v>
       </c>
       <c r="S29" t="n">
-        <v>9.266699698381059</v>
+        <v>9.266699698381052</v>
       </c>
       <c r="T29" t="n">
-        <v>1.780141653523338</v>
+        <v>1.780141653523337</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03253257162349901</v>
+        <v>0.03253257162349899</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2175807546729656</v>
+        <v>0.2175807546729655</v>
       </c>
       <c r="H30" t="n">
-        <v>2.101372025394168</v>
+        <v>2.101372025394167</v>
       </c>
       <c r="I30" t="n">
-        <v>7.491267211327984</v>
+        <v>7.491267211327979</v>
       </c>
       <c r="J30" t="n">
-        <v>20.55660980881734</v>
+        <v>20.55660980881732</v>
       </c>
       <c r="K30" t="n">
-        <v>35.13452037190604</v>
+        <v>35.13452037190601</v>
       </c>
       <c r="L30" t="n">
-        <v>47.24269850914546</v>
+        <v>47.24269850914542</v>
       </c>
       <c r="M30" t="n">
-        <v>55.13000086604045</v>
+        <v>55.13000086604041</v>
       </c>
       <c r="N30" t="n">
-        <v>56.58912794452714</v>
+        <v>56.58912794452711</v>
       </c>
       <c r="O30" t="n">
-        <v>51.7679964857209</v>
+        <v>51.76799648572086</v>
       </c>
       <c r="P30" t="n">
-        <v>41.54838112698061</v>
+        <v>41.54838112698058</v>
       </c>
       <c r="Q30" t="n">
-        <v>27.77399247369295</v>
+        <v>27.77399247369293</v>
       </c>
       <c r="R30" t="n">
-        <v>13.50909282083554</v>
+        <v>13.50909282083553</v>
       </c>
       <c r="S30" t="n">
-        <v>4.041467087894776</v>
+        <v>4.041467087894772</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8770031295809444</v>
+        <v>0.8770031295809438</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01431452333374774</v>
+        <v>0.01431452333374773</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1824123957065558</v>
+        <v>0.1824123957065557</v>
       </c>
       <c r="H31" t="n">
-        <v>1.621812027281925</v>
+        <v>1.621812027281924</v>
       </c>
       <c r="I31" t="n">
-        <v>5.485638227248063</v>
+        <v>5.485638227248059</v>
       </c>
       <c r="J31" t="n">
-        <v>12.8965563764535</v>
+        <v>12.89655637645349</v>
       </c>
       <c r="K31" t="n">
-        <v>21.19300379208894</v>
+        <v>21.19300379208892</v>
       </c>
       <c r="L31" t="n">
-        <v>27.11974835804559</v>
+        <v>27.11974835804557</v>
       </c>
       <c r="M31" t="n">
-        <v>28.59397217425584</v>
+        <v>28.59397217425582</v>
       </c>
       <c r="N31" t="n">
-        <v>27.91407142662234</v>
+        <v>27.91407142662231</v>
       </c>
       <c r="O31" t="n">
-        <v>25.78316298586847</v>
+        <v>25.78316298586845</v>
       </c>
       <c r="P31" t="n">
-        <v>22.06195011345471</v>
+        <v>22.0619501134547</v>
       </c>
       <c r="Q31" t="n">
-        <v>15.27455069866442</v>
+        <v>15.27455069866441</v>
       </c>
       <c r="R31" t="n">
-        <v>8.201924628769319</v>
+        <v>8.201924628769312</v>
       </c>
       <c r="S31" t="n">
-        <v>3.17895056881334</v>
+        <v>3.178950568813338</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7793984180189203</v>
+        <v>0.7793984180189197</v>
       </c>
       <c r="U31" t="n">
-        <v>0.009949767038539422</v>
+        <v>0.009949767038539415</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -35255,19 +35255,19 @@
         <v>3.206918035433006</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1678556611008975</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="M9" t="n">
         <v>3.516869431124803</v>
       </c>
       <c r="N9" t="n">
-        <v>3.516869431124803</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>3.516869431124803</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>0.1678556611008989</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>101.3548838438619</v>
+        <v>101.354883843862</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>188.4860450762374</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="M11" t="n">
-        <v>188.4860450762374</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="N11" t="n">
-        <v>79.51556345151747</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="O11" t="n">
-        <v>188.4860450762374</v>
+        <v>34.55585361291143</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>44.95970983860577</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>38.34143840733904</v>
+        <v>38.34143840733901</v>
       </c>
       <c r="L12" t="n">
-        <v>118.5108989343405</v>
+        <v>118.5108989343404</v>
       </c>
       <c r="M12" t="n">
-        <v>183.5033607911781</v>
+        <v>183.503360791178</v>
       </c>
       <c r="N12" t="n">
-        <v>188.4860450762374</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="O12" t="n">
         <v>133.0233611548194</v>
       </c>
       <c r="P12" t="n">
-        <v>84.463478160177</v>
+        <v>84.46347816017698</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35541,7 +35541,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5248431845728874</v>
+        <v>0.5248431845729442</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -35550,43 +35550,43 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>36.46562263731599</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>29.05880599385102</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>12.31711898238308</v>
       </c>
       <c r="I13" t="n">
-        <v>13.28795960680963</v>
+        <v>13.28795960680968</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>111.1085532649116</v>
       </c>
       <c r="L13" t="n">
-        <v>145.9858137434031</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>54.21622927599685</v>
+        <v>152.9205398770395</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>140.6589497292531</v>
+        <v>140.6589497292532</v>
       </c>
       <c r="P13" t="n">
-        <v>119.6598020505342</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>50.92244958906446</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>101.3548838438619</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>171.4066867664378</v>
       </c>
       <c r="L14" t="n">
-        <v>47.182988221249</v>
+        <v>47.18298822124896</v>
       </c>
       <c r="M14" t="n">
-        <v>81.66780162964184</v>
+        <v>165.6411227276693</v>
       </c>
       <c r="N14" t="n">
-        <v>188.4860450762374</v>
+        <v>76.07772050874968</v>
       </c>
       <c r="O14" t="n">
-        <v>34.55585361291149</v>
+        <v>34.55585361291143</v>
       </c>
       <c r="P14" t="n">
-        <v>33.25099042458211</v>
+        <v>163.040877737904</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.42333294917</v>
+        <v>88.42333294916997</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>38.34143840733904</v>
+        <v>38.34143840733901</v>
       </c>
       <c r="L15" t="n">
-        <v>118.5108989343405</v>
+        <v>118.5108989343404</v>
       </c>
       <c r="M15" t="n">
-        <v>183.5033607911781</v>
+        <v>183.503360791178</v>
       </c>
       <c r="N15" t="n">
-        <v>188.4860450762374</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="O15" t="n">
         <v>133.0233611548194</v>
       </c>
       <c r="P15" t="n">
-        <v>84.463478160177</v>
+        <v>84.46347816017698</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35784,7 +35784,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>32.95911359883027</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -35793,13 +35793,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>9.440961117302569</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>13.28795960680963</v>
+        <v>13.28795960680962</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -35811,19 +35811,19 @@
         <v>145.9858137434031</v>
       </c>
       <c r="M16" t="n">
-        <v>152.9205398770395</v>
+        <v>152.9205398770394</v>
       </c>
       <c r="N16" t="n">
-        <v>114.7233438127389</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>138.2414962942667</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>50.92244958906442</v>
+        <v>50.92244958906441</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>56.43976948871867</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>188.4860450762374</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="L17" t="n">
-        <v>47.182988221249</v>
+        <v>47.18298822124896</v>
       </c>
       <c r="M17" t="n">
-        <v>188.4860450762374</v>
+        <v>81.66780162964179</v>
       </c>
       <c r="N17" t="n">
-        <v>76.07772050874972</v>
+        <v>102.2086974254109</v>
       </c>
       <c r="O17" t="n">
-        <v>188.4860450762374</v>
+        <v>34.55585361291143</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="R17" t="n">
-        <v>57.60973856538052</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35914,7 +35914,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>47.30138199368485</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>38.34143840733904</v>
+        <v>38.34143840733901</v>
       </c>
       <c r="L18" t="n">
-        <v>118.5108989343405</v>
+        <v>118.5108989343404</v>
       </c>
       <c r="M18" t="n">
-        <v>183.5033607911781</v>
+        <v>183.503360791178</v>
       </c>
       <c r="N18" t="n">
-        <v>188.4860450762374</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="O18" t="n">
         <v>133.0233611548194</v>
       </c>
       <c r="P18" t="n">
-        <v>84.463478160177</v>
+        <v>84.46347816017698</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>89.32381254073667</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>188.4860450762373</v>
+        <v>47.18298822124896</v>
       </c>
       <c r="M20" t="n">
-        <v>81.66780162964184</v>
+        <v>81.66780162964179</v>
       </c>
       <c r="N20" t="n">
-        <v>76.07772050874972</v>
+        <v>76.07772050874968</v>
       </c>
       <c r="O20" t="n">
         <v>188.4860450762373</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>164.4279820119761</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36148,10 +36148,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>74.98577569880339</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>47.30138199368479</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>38.34143840733904</v>
+        <v>38.34143840733901</v>
       </c>
       <c r="L21" t="n">
-        <v>118.5108989343405</v>
+        <v>118.5108989343404</v>
       </c>
       <c r="M21" t="n">
-        <v>183.5033607911781</v>
+        <v>183.503360791178</v>
       </c>
       <c r="N21" t="n">
-        <v>188.4860450762372</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="O21" t="n">
         <v>133.0233611548194</v>
       </c>
       <c r="P21" t="n">
-        <v>84.463478160177</v>
+        <v>84.46347816017698</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36352,43 +36352,43 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>56.43976948871863</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>13.72916984973566</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>188.4860450762374</v>
+        <v>47.18298822124896</v>
       </c>
       <c r="M23" t="n">
-        <v>81.66780162964184</v>
+        <v>81.66780162964179</v>
       </c>
       <c r="N23" t="n">
-        <v>188.4860450762374</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="O23" t="n">
-        <v>34.55585361291149</v>
+        <v>34.55585361291143</v>
       </c>
       <c r="P23" t="n">
-        <v>188.4860450762374</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>8.207022564107259</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>69.9335213655902</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>74.98577569880344</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>47.30138199368485</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>38.34143840733904</v>
+        <v>38.34143840733865</v>
       </c>
       <c r="L24" t="n">
-        <v>118.5108989343405</v>
+        <v>118.5108989343404</v>
       </c>
       <c r="M24" t="n">
-        <v>183.5033607911781</v>
+        <v>183.503360791178</v>
       </c>
       <c r="N24" t="n">
-        <v>188.4860450762374</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="O24" t="n">
         <v>133.0233611548194</v>
       </c>
       <c r="P24" t="n">
-        <v>84.463478160177</v>
+        <v>84.46347816017698</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>136.7011493464499</v>
       </c>
       <c r="K26" t="n">
-        <v>206.7529522690258</v>
+        <v>206.7529522690257</v>
       </c>
       <c r="L26" t="n">
-        <v>260.671017573378</v>
+        <v>260.6710175733779</v>
       </c>
       <c r="M26" t="n">
-        <v>295.1558309817708</v>
+        <v>295.1558309817707</v>
       </c>
       <c r="N26" t="n">
-        <v>289.5657498608787</v>
+        <v>289.5657498608786</v>
       </c>
       <c r="O26" t="n">
         <v>248.0438829650404</v>
       </c>
       <c r="P26" t="n">
-        <v>198.3871432404931</v>
+        <v>198.387143240492</v>
       </c>
       <c r="Q26" t="n">
-        <v>123.769598451758</v>
+        <v>123.7695984517579</v>
       </c>
       <c r="R26" t="n">
-        <v>18.60259019963819</v>
+        <v>18.60259019963814</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>38.34143840733904</v>
+        <v>38.34143840733901</v>
       </c>
       <c r="L27" t="n">
-        <v>118.5108989343405</v>
+        <v>118.5108989343404</v>
       </c>
       <c r="M27" t="n">
-        <v>183.5033607911781</v>
+        <v>183.503360791178</v>
       </c>
       <c r="N27" t="n">
-        <v>206.9660977774832</v>
+        <v>206.9660977774831</v>
       </c>
       <c r="O27" t="n">
         <v>133.0233611548194</v>
       </c>
       <c r="P27" t="n">
-        <v>84.463478160177</v>
+        <v>84.46347816017698</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>67.4858438869594</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>181.3320792459911</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -36765,16 +36765,16 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>51.2166501728117</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>155.0060675531222</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>10.05681797872148</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>123.769598451758</v>
       </c>
       <c r="R29" t="n">
-        <v>18.60259019963819</v>
+        <v>18.6025901996382</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,22 +36911,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>38.34143840733904</v>
+        <v>38.34143840733901</v>
       </c>
       <c r="L30" t="n">
-        <v>118.5108989343405</v>
+        <v>118.5108989343404</v>
       </c>
       <c r="M30" t="n">
-        <v>183.5033607911781</v>
+        <v>183.503360791178</v>
       </c>
       <c r="N30" t="n">
-        <v>206.9660977774832</v>
+        <v>206.9660977774831</v>
       </c>
       <c r="O30" t="n">
         <v>133.0233611548194</v>
       </c>
       <c r="P30" t="n">
-        <v>84.463478160177</v>
+        <v>84.46347816017698</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36969,7 +36969,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>68.30537910141825</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -36999,10 +36999,10 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>164.2433503173845</v>
+        <v>196.9636170463781</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>35.58511237242455</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -37072,13 +37072,13 @@
         <v>207.6628367282464</v>
       </c>
       <c r="L32" t="n">
-        <v>261.5809020325985</v>
+        <v>239.4665599097047</v>
       </c>
       <c r="M32" t="n">
         <v>296.0657154409914</v>
       </c>
       <c r="N32" t="n">
-        <v>268.361292197206</v>
+        <v>290.4756343200993</v>
       </c>
       <c r="O32" t="n">
         <v>248.9537674242611</v>
@@ -37203,10 +37203,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>47.9407328393772</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>69.21526356063885</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -37227,7 +37227,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>97.92751898555423</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -37236,19 +37236,19 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>70.13426581116951</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>155.9159520123428</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>10.9667024379421</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37300,31 +37300,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>31.04691547795237</v>
+        <v>31.04691547795243</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>195.2721944288228</v>
       </c>
       <c r="K35" t="n">
-        <v>40.258695056265</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>260.4612548573207</v>
+        <v>260.4612548573206</v>
       </c>
       <c r="M35" t="n">
-        <v>260.4612548573207</v>
+        <v>81.66780162964184</v>
       </c>
       <c r="N35" t="n">
         <v>76.07772050874972</v>
       </c>
       <c r="O35" t="n">
-        <v>34.55585361291149</v>
+        <v>204.4548019277219</v>
       </c>
       <c r="P35" t="n">
-        <v>256.9581883228649</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>182.3406435341309</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37333,10 +37333,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>49.59292168803713</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>21.90852798291854</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -37443,7 +37443,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>35.55669493473962</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -37476,7 +37476,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>35.55669493473952</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -37537,25 +37537,25 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>31.04691547795243</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>100.2062144222211</v>
       </c>
       <c r="K38" t="n">
-        <v>260.4612548573207</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>47.182988221249</v>
       </c>
       <c r="M38" t="n">
-        <v>260.4612548573207</v>
+        <v>260.4612548573206</v>
       </c>
       <c r="N38" t="n">
-        <v>260.4612548573207</v>
+        <v>260.4612548573206</v>
       </c>
       <c r="O38" t="n">
-        <v>202.7545795711293</v>
+        <v>260.4612548573206</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -37570,10 +37570,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>49.59292168803719</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>21.90852798291859</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -37689,7 +37689,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>35.55669493473962</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -37710,7 +37710,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>35.55669493473952</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -37777,34 +37777,34 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>164.2252789508704</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>107.6105280249594</v>
+        <v>234.2770818734463</v>
       </c>
       <c r="L41" t="n">
         <v>288.1951471777984</v>
       </c>
       <c r="M41" t="n">
-        <v>81.66780162964184</v>
+        <v>322.6799605861913</v>
       </c>
       <c r="N41" t="n">
-        <v>317.0898794652992</v>
+        <v>76.07772050874972</v>
       </c>
       <c r="O41" t="n">
-        <v>34.55585361291149</v>
+        <v>275.568012569461</v>
       </c>
       <c r="P41" t="n">
-        <v>225.9112728449125</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>151.2937280561785</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>8.964087113874962</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>13.49375187687151</v>
       </c>
       <c r="T41" t="n">
         <v>18.54600621008475</v>
@@ -37917,7 +37917,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>65.51037359770029</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -37944,7 +37944,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>103.0913211808423</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -37959,7 +37959,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>37.58094758314201</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38017,10 +38017,10 @@
         <v>164.2252789508704</v>
       </c>
       <c r="K44" t="n">
-        <v>51.43517644247692</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>288.1951471777985</v>
+        <v>265.0127788315414</v>
       </c>
       <c r="M44" t="n">
         <v>322.6799605861913</v>
@@ -38032,10 +38032,10 @@
         <v>275.568012569461</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>225.9112728449126</v>
       </c>
       <c r="Q44" t="n">
-        <v>151.2937280561785</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>46.12671980405869</v>
@@ -38166,7 +38166,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>75.1875140893915</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -38184,13 +38184,13 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>27.9038070914508</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>103.0913211808423</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
